--- a/1_calculation_scripts/1_4_methane/results/mie_results_vle_sle_sve_fluid.xlsx
+++ b/1_calculation_scripts/1_4_methane/results/mie_results_vle_sle_sve_fluid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>lambda_r</t>
   </si>
@@ -77,7 +77,13 @@
     <t>tcondl_vle_model</t>
   </si>
   <si>
+    <t>tcondl_vle_model_ann</t>
+  </si>
+  <si>
     <t>speed_of_sound_liq_vle_model</t>
+  </si>
+  <si>
+    <t>tcondl_vle_model_vib</t>
   </si>
 </sst>
 </file>
@@ -478,13 +484,13 @@
         <v>0.9705375691864838</v>
       </c>
       <c r="D2">
-        <v>201.9235614746008</v>
+        <v>201.9235614746006</v>
       </c>
       <c r="E2">
-        <v>5840731.393945251</v>
+        <v>5840731.393945213</v>
       </c>
       <c r="F2">
-        <v>10176.12112102462</v>
+        <v>10176.12112102457</v>
       </c>
       <c r="G2">
         <v>3.762777823211245</v>
@@ -500,13 +506,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -546,8 +552,14 @@
       <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>55.98546954192567</v>
       </c>
@@ -585,100 +597,118 @@
         <v>0.1728403469837177</v>
       </c>
       <c r="M2">
+        <v>0.1728392161279629</v>
+      </c>
+      <c r="N2">
         <v>1859.331549126269</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="O2">
+        <v>1.130855754775067E-06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
-        <v>57.45957128634042</v>
+        <v>57.45957128634041</v>
       </c>
       <c r="B3">
-        <v>7.935392693317384</v>
+        <v>7.935392693317432</v>
       </c>
       <c r="C3">
-        <v>0.01661031379727019</v>
+        <v>0.0166103137972703</v>
       </c>
       <c r="D3">
-        <v>32473.59385306015</v>
+        <v>32473.59385306016</v>
       </c>
       <c r="E3">
         <v>11079.2235978478</v>
       </c>
       <c r="F3">
-        <v>10601.48496325423</v>
+        <v>10601.48496325424</v>
       </c>
       <c r="G3">
-        <v>62.84404068590043</v>
+        <v>62.84404068590037</v>
       </c>
       <c r="H3">
         <v>152.9461618971091</v>
       </c>
       <c r="I3">
-        <v>1.29971147135026E-09</v>
+        <v>1.299711471350259E-09</v>
       </c>
       <c r="J3">
-        <v>8.843938076048796E-10</v>
+        <v>8.843938076048794E-10</v>
       </c>
       <c r="K3">
-        <v>0.0006938526478971117</v>
+        <v>0.0006938526478971121</v>
       </c>
       <c r="L3">
-        <v>0.1720541303403015</v>
+        <v>0.1720541303403016</v>
       </c>
       <c r="M3">
-        <v>1769.678747959717</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.1720529772681439</v>
+      </c>
+      <c r="N3">
+        <v>1769.678747959719</v>
+      </c>
+      <c r="O3">
+        <v>1.153072157628676E-06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>58.93367303075517</v>
       </c>
       <c r="B4">
-        <v>14.09241297192129</v>
+        <v>14.09241297192146</v>
       </c>
       <c r="C4">
-        <v>0.02876057553879837</v>
+        <v>0.02876057553879872</v>
       </c>
       <c r="D4">
         <v>32080.91126701081</v>
       </c>
       <c r="E4">
-        <v>10858.5098733949</v>
+        <v>10858.50987339491</v>
       </c>
       <c r="F4">
         <v>10368.51966721876</v>
       </c>
       <c r="G4">
-        <v>65.49983032577636</v>
+        <v>65.49983032577629</v>
       </c>
       <c r="H4">
-        <v>146.2708794431933</v>
+        <v>146.2708794431932</v>
       </c>
       <c r="I4">
-        <v>1.323522857228728E-09</v>
+        <v>1.323522857228729E-09</v>
       </c>
       <c r="J4">
         <v>9.137898916843674E-10</v>
       </c>
       <c r="K4">
-        <v>0.0006994042492184833</v>
+        <v>0.000699404249218483</v>
       </c>
       <c r="L4">
         <v>0.1714240479024561</v>
       </c>
       <c r="M4">
-        <v>1706.86548065941</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.1714228709105284</v>
+      </c>
+      <c r="N4">
+        <v>1706.865480659409</v>
+      </c>
+      <c r="O4">
+        <v>1.176991927704056E-06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>60.40777477516992</v>
       </c>
       <c r="B5">
-        <v>24.07518998846456</v>
+        <v>24.07518998846457</v>
       </c>
       <c r="C5">
-        <v>0.04793563762011452</v>
+        <v>0.04793563762011453</v>
       </c>
       <c r="D5">
         <v>31714.91268508415</v>
@@ -708,18 +738,24 @@
         <v>0.1709384163225057</v>
       </c>
       <c r="M5">
+        <v>0.1709372135461587</v>
+      </c>
+      <c r="N5">
         <v>1660.777008286014</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="O5">
+        <v>1.202776347068139E-06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>61.88187651958467</v>
       </c>
       <c r="B6">
-        <v>39.70731498343427</v>
+        <v>39.70731498343368</v>
       </c>
       <c r="C6">
-        <v>0.07717866472634689</v>
+        <v>0.07717866472634576</v>
       </c>
       <c r="D6">
         <v>31372.90582116721</v>
@@ -728,80 +764,92 @@
         <v>10450.37967611441</v>
       </c>
       <c r="F6">
-        <v>9935.895298302434</v>
+        <v>9935.89529830243</v>
       </c>
       <c r="G6">
-        <v>64.73770621950986</v>
+        <v>64.73770621950979</v>
       </c>
       <c r="H6">
-        <v>130.1405596972335</v>
+        <v>130.1405596972334</v>
       </c>
       <c r="I6">
-        <v>1.369282219081029E-09</v>
+        <v>1.36928221908103E-09</v>
       </c>
       <c r="J6">
         <v>9.769700443024873E-10</v>
       </c>
       <c r="K6">
-        <v>0.0006979030173249515</v>
+        <v>0.0006979030173249512</v>
       </c>
       <c r="L6">
         <v>0.1705890274790274</v>
       </c>
       <c r="M6">
-        <v>1625.784474636229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.1705877968803716</v>
+      </c>
+      <c r="N6">
+        <v>1625.784474636228</v>
+      </c>
+      <c r="O6">
+        <v>1.230598655841791E-06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
-        <v>63.35597826399943</v>
+        <v>63.35597826399941</v>
       </c>
       <c r="B7">
-        <v>63.43009139806823</v>
+        <v>63.43009139806801</v>
       </c>
       <c r="C7">
-        <v>0.1204231800280141</v>
+        <v>0.1204231800280137</v>
       </c>
       <c r="D7">
         <v>31052.49490488974</v>
       </c>
       <c r="E7">
-        <v>10264.86431677262</v>
+        <v>10264.86431677263</v>
       </c>
       <c r="F7">
-        <v>9738.139765914089</v>
+        <v>9738.139765914091</v>
       </c>
       <c r="G7">
-        <v>62.39732792357046</v>
+        <v>62.39732792357063</v>
       </c>
       <c r="H7">
-        <v>121.4800352619348</v>
+        <v>121.4800352619351</v>
       </c>
       <c r="I7">
         <v>1.391535689360323E-09</v>
       </c>
       <c r="J7">
-        <v>1.011150411249712E-09</v>
+        <v>1.011150411249711E-09</v>
       </c>
       <c r="K7">
-        <v>0.0006903601225164221</v>
+        <v>0.0006903601225164218</v>
       </c>
       <c r="L7">
         <v>0.1703703109031248</v>
       </c>
       <c r="M7">
-        <v>1598.483943305113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.1703690502584009</v>
+      </c>
+      <c r="N7">
+        <v>1598.483943305112</v>
+      </c>
+      <c r="O7">
+        <v>1.260644723947978E-06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>64.83008000841417</v>
       </c>
       <c r="B8">
-        <v>98.42750682059854</v>
+        <v>98.42750682059857</v>
       </c>
       <c r="C8">
-        <v>0.1826244819275504</v>
+        <v>0.1826244819275505</v>
       </c>
       <c r="D8">
         <v>30751.54387398486</v>
@@ -813,7 +861,7 @@
         <v>9553.174863758957</v>
       </c>
       <c r="G8">
-        <v>59.29619004369509</v>
+        <v>59.29619004369517</v>
       </c>
       <c r="H8">
         <v>112.8121666371808</v>
@@ -831,39 +879,45 @@
         <v>0.1702784621498293</v>
       </c>
       <c r="M8">
-        <v>1576.681663893086</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.1702771690362396</v>
+      </c>
+      <c r="N8">
+        <v>1576.681663893085</v>
+      </c>
+      <c r="O8">
+        <v>1.293113589678344E-06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>66.30418175282892</v>
       </c>
       <c r="B9">
-        <v>148.7576650442298</v>
+        <v>148.7576650442283</v>
       </c>
       <c r="C9">
-        <v>0.2698857663254</v>
+        <v>0.2698857663253973</v>
       </c>
       <c r="D9">
         <v>30468.14467833037</v>
       </c>
       <c r="E9">
-        <v>9932.034139622467</v>
+        <v>9932.03413962247</v>
       </c>
       <c r="F9">
-        <v>9380.851506393601</v>
+        <v>9380.851506393603</v>
       </c>
       <c r="G9">
-        <v>55.73355495205201</v>
+        <v>55.73355495205207</v>
       </c>
       <c r="H9">
-        <v>104.3395977619643</v>
+        <v>104.3395977619644</v>
       </c>
       <c r="I9">
         <v>1.4355199568954E-09</v>
       </c>
       <c r="J9">
-        <v>1.085782450320604E-09</v>
+        <v>1.085782450320603E-09</v>
       </c>
       <c r="K9">
         <v>0.0006611980535763921</v>
@@ -872,258 +926,300 @@
         <v>0.1703105260681324</v>
       </c>
       <c r="M9">
+        <v>0.1703091978503046</v>
+      </c>
+      <c r="N9">
         <v>1558.889651249848</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="O9">
+        <v>1.328217827782297E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
-        <v>67.77828349724368</v>
+        <v>67.77828349724366</v>
       </c>
       <c r="B10">
-        <v>219.4886169216605</v>
+        <v>219.4886169216668</v>
       </c>
       <c r="C10">
-        <v>0.3895763478112738</v>
+        <v>0.389576347811285</v>
       </c>
       <c r="D10">
-        <v>30200.58988758891</v>
+        <v>30200.58988758893</v>
       </c>
       <c r="E10">
-        <v>9784.161592071792</v>
+        <v>9784.161592071809</v>
       </c>
       <c r="F10">
-        <v>9220.765516032525</v>
+        <v>9220.765516032548</v>
       </c>
       <c r="G10">
-        <v>51.93738887665379</v>
+        <v>51.93738887665378</v>
       </c>
       <c r="H10">
-        <v>96.20707733178448</v>
+        <v>96.2070773317846</v>
       </c>
       <c r="I10">
-        <v>1.457524375193387E-09</v>
+        <v>1.457524375193384E-09</v>
       </c>
       <c r="J10">
-        <v>1.126712629717856E-09</v>
+        <v>1.126712629717854E-09</v>
       </c>
       <c r="K10">
-        <v>0.0006397930268536315</v>
+        <v>0.0006397930268536326</v>
       </c>
       <c r="L10">
-        <v>0.1704634591769142</v>
+        <v>0.1704634591769143</v>
       </c>
       <c r="M10">
-        <v>1544.054861979907</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.1704620929932108</v>
+      </c>
+      <c r="N10">
+        <v>1544.054861979909</v>
+      </c>
+      <c r="O10">
+        <v>1.366183703513356E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
-        <v>69.25238524165843</v>
+        <v>69.25238524165842</v>
       </c>
       <c r="B11">
-        <v>316.8365617770815</v>
+        <v>316.8365617770759</v>
       </c>
       <c r="C11">
-        <v>0.5504399483552256</v>
+        <v>0.5504399483552159</v>
       </c>
       <c r="D11">
         <v>29947.3489434047</v>
       </c>
       <c r="E11">
-        <v>9647.930220656566</v>
+        <v>9647.930220656559</v>
       </c>
       <c r="F11">
-        <v>9072.334755136748</v>
+        <v>9072.334755136739</v>
       </c>
       <c r="G11">
-        <v>48.07724354223811</v>
+        <v>48.07724354223831</v>
       </c>
       <c r="H11">
-        <v>88.51239245627166</v>
+        <v>88.51239245627193</v>
       </c>
       <c r="I11">
         <v>1.47970794666089E-09</v>
       </c>
       <c r="J11">
-        <v>1.170395467789029E-09</v>
+        <v>1.170395467789028E-09</v>
       </c>
       <c r="K11">
-        <v>0.0006142827693106671</v>
+        <v>0.0006142827693106682</v>
       </c>
       <c r="L11">
         <v>0.1707332295908514</v>
       </c>
       <c r="M11">
+        <v>0.1707318223397884</v>
+      </c>
+      <c r="N11">
         <v>1531.404891365409</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="O11">
+        <v>1.407251063017151E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
-        <v>70.72648698607318</v>
+        <v>70.72648698607317</v>
       </c>
       <c r="B12">
-        <v>448.3044278303266</v>
+        <v>448.3044278303252</v>
       </c>
       <c r="C12">
-        <v>0.7626915034260886</v>
+        <v>0.7626915034260863</v>
       </c>
       <c r="D12">
-        <v>29707.04750832549</v>
+        <v>29707.0475083255</v>
       </c>
       <c r="E12">
-        <v>9522.638442140391</v>
+        <v>9522.638442140396</v>
       </c>
       <c r="F12">
-        <v>8934.86092497875</v>
+        <v>8934.860924978753</v>
       </c>
       <c r="G12">
-        <v>44.27571354520407</v>
+        <v>44.27571354520403</v>
       </c>
       <c r="H12">
-        <v>81.31617102333941</v>
+        <v>81.31617102333939</v>
       </c>
       <c r="I12">
-        <v>1.502190154018026E-09</v>
+        <v>1.502190154018025E-09</v>
       </c>
       <c r="J12">
-        <v>1.217106580339006E-09</v>
+        <v>1.217106580339005E-09</v>
       </c>
       <c r="K12">
         <v>0.0005852564797351719</v>
       </c>
       <c r="L12">
-        <v>0.1711140376173716</v>
+        <v>0.1711140376173717</v>
       </c>
       <c r="M12">
-        <v>1520.355925264353</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.1711125859444651</v>
+      </c>
+      <c r="N12">
+        <v>1520.355925264354</v>
+      </c>
+      <c r="O12">
+        <v>1.451672906525081E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
-        <v>72.20058873048794</v>
+        <v>72.20058873048792</v>
       </c>
       <c r="B13">
-        <v>622.8188983806492</v>
+        <v>622.8188983806403</v>
       </c>
       <c r="C13">
-        <v>1.038101369292169</v>
+        <v>1.038101369292154</v>
       </c>
       <c r="D13">
-        <v>29478.44946696216</v>
+        <v>29478.44946696217</v>
       </c>
       <c r="E13">
-        <v>9407.516388309188</v>
+        <v>9407.516388309195</v>
       </c>
       <c r="F13">
-        <v>8807.577900672391</v>
+        <v>8807.577900672402</v>
       </c>
       <c r="G13">
-        <v>40.6182861070306</v>
+        <v>40.6182861070307</v>
       </c>
       <c r="H13">
-        <v>74.65032422971389</v>
+        <v>74.65032422971409</v>
       </c>
       <c r="I13">
-        <v>1.525083729346136E-09</v>
+        <v>1.525083729346135E-09</v>
       </c>
       <c r="J13">
-        <v>1.267135755488613E-09</v>
+        <v>1.267135755488612E-09</v>
       </c>
       <c r="K13">
-        <v>0.0005535001218531165</v>
+        <v>0.000553500121853118</v>
       </c>
       <c r="L13">
-        <v>0.1715977471580468</v>
+        <v>0.1715977471580469</v>
       </c>
       <c r="M13">
+        <v>0.17159624744346</v>
+      </c>
+      <c r="N13">
         <v>1510.455875493866</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="O13">
+        <v>1.49971458688457E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
-        <v>73.67469047490269</v>
+        <v>73.67469047490266</v>
       </c>
       <c r="B14">
-        <v>850.863993590424</v>
+        <v>850.8639935903963</v>
       </c>
       <c r="C14">
-        <v>1.390066147457633</v>
+        <v>1.390066147457588</v>
       </c>
       <c r="D14">
         <v>29260.44119910402</v>
       </c>
       <c r="E14">
-        <v>9301.762807930032</v>
+        <v>9301.76280793003</v>
       </c>
       <c r="F14">
         <v>8689.688646210527</v>
       </c>
       <c r="G14">
-        <v>37.16159491995066</v>
+        <v>37.16159491995075</v>
       </c>
       <c r="H14">
-        <v>68.52510287849243</v>
+        <v>68.52510287849258</v>
       </c>
       <c r="I14">
-        <v>1.548495081983366E-09</v>
+        <v>1.548495081983365E-09</v>
       </c>
       <c r="J14">
-        <v>1.320786193353969E-09</v>
+        <v>1.320786193353968E-09</v>
       </c>
       <c r="K14">
-        <v>0.0005199513827076009</v>
+        <v>0.0005199513827076014</v>
       </c>
       <c r="L14">
         <v>0.1721736021607465</v>
       </c>
       <c r="M14">
+        <v>0.172172050508169</v>
+      </c>
+      <c r="N14">
         <v>1501.348322307042</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="O14">
+        <v>1.551652577493728E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
-        <v>75.14879221931744</v>
+        <v>75.14879221931741</v>
       </c>
       <c r="B15">
-        <v>1144.609393446027</v>
+        <v>1144.609393446017</v>
       </c>
       <c r="C15">
-        <v>1.833665665351233</v>
+        <v>1.833665665351218</v>
       </c>
       <c r="D15">
-        <v>29052.0178114436</v>
+        <v>29052.01781144361</v>
       </c>
       <c r="E15">
         <v>9204.572544900642</v>
       </c>
       <c r="F15">
-        <v>8580.392700538727</v>
+        <v>8580.39270053873</v>
       </c>
       <c r="G15">
-        <v>33.94019940068794</v>
+        <v>33.94019940068803</v>
       </c>
       <c r="H15">
-        <v>62.9348566868573</v>
+        <v>62.93485668685744</v>
       </c>
       <c r="I15">
-        <v>1.572524863234086E-09</v>
+        <v>1.572524863234084E-09</v>
       </c>
       <c r="J15">
-        <v>1.378373300362831E-09</v>
+        <v>1.37837330036283E-09</v>
       </c>
       <c r="K15">
-        <v>0.0004856225905304703</v>
+        <v>0.0004856225905304713</v>
       </c>
       <c r="L15">
         <v>0.172828265725558</v>
       </c>
       <c r="M15">
-        <v>1492.749194345687</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.172826657952801</v>
+      </c>
+      <c r="N15">
+        <v>1492.749194345688</v>
+      </c>
+      <c r="O15">
+        <v>1.607772757012128E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
-        <v>76.62289396373218</v>
+        <v>76.62289396373215</v>
       </c>
       <c r="B16">
         <v>1518.031778573659</v>
@@ -1132,227 +1228,257 @@
         <v>2.385705937047837</v>
       </c>
       <c r="D16">
-        <v>28852.27106120339</v>
+        <v>28852.2710612034</v>
       </c>
       <c r="E16">
-        <v>9115.1564043096</v>
+        <v>9115.156404309597</v>
       </c>
       <c r="F16">
         <v>8478.906046015796</v>
       </c>
       <c r="G16">
-        <v>30.97206259117547</v>
+        <v>30.97206259117553</v>
       </c>
       <c r="H16">
-        <v>57.86264277594558</v>
+        <v>57.86264277594567</v>
       </c>
       <c r="I16">
-        <v>1.597268626671138E-09</v>
+        <v>1.597268626671136E-09</v>
       </c>
       <c r="J16">
-        <v>1.44022298185473E-09</v>
+        <v>1.440222981854729E-09</v>
       </c>
       <c r="K16">
-        <v>0.0004515046668134353</v>
+        <v>0.0004515046668134363</v>
       </c>
       <c r="L16">
-        <v>0.1735461701723432</v>
+        <v>0.1735461701723431</v>
       </c>
       <c r="M16">
-        <v>1484.431414152516</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.1735445018041756</v>
+      </c>
+      <c r="N16">
+        <v>1484.431414152517</v>
+      </c>
+      <c r="O16">
+        <v>1.668368167530644E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
-        <v>78.09699570814695</v>
+        <v>78.09699570814692</v>
       </c>
       <c r="B17">
-        <v>1987.027589904292</v>
+        <v>1987.027589904257</v>
       </c>
       <c r="C17">
-        <v>3.06474820488162</v>
+        <v>3.064748204881567</v>
       </c>
       <c r="D17">
         <v>28660.37874541794</v>
       </c>
       <c r="E17">
-        <v>9032.754984218962</v>
+        <v>9032.754984218964</v>
       </c>
       <c r="F17">
-        <v>8384.474937127372</v>
+        <v>8384.474937127376</v>
       </c>
       <c r="G17">
-        <v>28.26291650182171</v>
+        <v>28.26291650182185</v>
       </c>
       <c r="H17">
-        <v>53.28384928961802</v>
+        <v>53.28384928961817</v>
       </c>
       <c r="I17">
         <v>1.622817550346368E-09</v>
       </c>
       <c r="J17">
-        <v>1.506669387576866E-09</v>
+        <v>1.506669387576865E-09</v>
       </c>
       <c r="K17">
-        <v>0.0004184731166856081</v>
+        <v>0.0004184731166856083</v>
       </c>
       <c r="L17">
         <v>0.1743101170877365</v>
       </c>
       <c r="M17">
+        <v>0.1743083833515189</v>
+      </c>
+      <c r="N17">
         <v>1476.214548750758</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="O17">
+        <v>1.733736217675136E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
-        <v>79.5710974525617</v>
+        <v>79.57109745256166</v>
       </c>
       <c r="B18">
-        <v>2569.5157657251</v>
+        <v>2569.515765725051</v>
       </c>
       <c r="C18">
-        <v>3.891124430397643</v>
+        <v>3.89112443039757</v>
       </c>
       <c r="D18">
-        <v>28475.59536274874</v>
+        <v>28475.59536274875</v>
       </c>
       <c r="E18">
-        <v>8956.647805485822</v>
+        <v>8956.647805485823</v>
       </c>
       <c r="F18">
-        <v>8296.38502198346</v>
+        <v>8296.385021983464</v>
       </c>
       <c r="G18">
         <v>25.80969804827812</v>
       </c>
       <c r="H18">
-        <v>49.16899798686729</v>
+        <v>49.16899798686735</v>
       </c>
       <c r="I18">
-        <v>1.649259194418083E-09</v>
+        <v>1.649259194418082E-09</v>
       </c>
       <c r="J18">
-        <v>1.578052081611851E-09</v>
+        <v>1.578052081611849E-09</v>
       </c>
       <c r="K18">
-        <v>0.0003872172027002225</v>
+        <v>0.0003872172027002232</v>
       </c>
       <c r="L18">
         <v>0.1751020291651217</v>
       </c>
       <c r="M18">
-        <v>1467.957554089373</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.1751002249897983</v>
+      </c>
+      <c r="N18">
+        <v>1467.957554089374</v>
+      </c>
+      <c r="O18">
+        <v>1.804175323377941E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
-        <v>81.04519919697644</v>
+        <v>81.04519919697641</v>
       </c>
       <c r="B19">
-        <v>3285.529204451761</v>
+        <v>3285.529204451802</v>
       </c>
       <c r="C19">
-        <v>4.886939858940631</v>
+        <v>4.886939858940694</v>
       </c>
       <c r="D19">
-        <v>28297.24388228754</v>
+        <v>28297.24388228755</v>
       </c>
       <c r="E19">
-        <v>8886.158838904557</v>
+        <v>8886.158838904563</v>
       </c>
       <c r="F19">
-        <v>8213.966856244424</v>
+        <v>8213.966856244426</v>
       </c>
       <c r="G19">
-        <v>23.60322205005271</v>
+        <v>23.60322205005267</v>
       </c>
       <c r="H19">
-        <v>45.48587595168342</v>
+        <v>45.4858759516834</v>
       </c>
       <c r="I19">
-        <v>1.676678274152777E-09</v>
+        <v>1.676678274152778E-09</v>
       </c>
       <c r="J19">
         <v>1.654712631508195E-09</v>
       </c>
       <c r="K19">
-        <v>0.0003582054351233246</v>
+        <v>0.0003582054351233247</v>
       </c>
       <c r="L19">
         <v>0.1759037382684904</v>
       </c>
       <c r="M19">
-        <v>1459.553351055313</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.1759018582874834</v>
+      </c>
+      <c r="N19">
+        <v>1459.553351055312</v>
+      </c>
+      <c r="O19">
+        <v>1.879981006951993E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
-        <v>82.51930094139121</v>
+        <v>82.51930094139117</v>
       </c>
       <c r="B20">
-        <v>4157.293918704079</v>
+        <v>4157.293918704068</v>
       </c>
       <c r="C20">
-        <v>6.076063519852076</v>
+        <v>6.076063519852062</v>
       </c>
       <c r="D20">
-        <v>28124.7084769425</v>
+        <v>28124.70847694251</v>
       </c>
       <c r="E20">
-        <v>8820.659320362982</v>
+        <v>8820.659320362984</v>
       </c>
       <c r="F20">
-        <v>8136.5987006604</v>
+        <v>8136.598700660403</v>
       </c>
       <c r="G20">
-        <v>21.63023646820455</v>
+        <v>21.63023646820457</v>
       </c>
       <c r="H20">
-        <v>42.20112778609131</v>
+        <v>42.20112778609136</v>
       </c>
       <c r="I20">
-        <v>1.705157433844727E-09</v>
+        <v>1.705157433844726E-09</v>
       </c>
       <c r="J20">
-        <v>1.736990640776676E-09</v>
+        <v>1.736990640776674E-09</v>
       </c>
       <c r="K20">
-        <v>0.0003316885377922362</v>
+        <v>0.0003316885377922366</v>
       </c>
       <c r="L20">
         <v>0.1766976982534096</v>
       </c>
       <c r="M20">
+        <v>0.1766957368119004</v>
+      </c>
+      <c r="N20">
         <v>1450.924403756416</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="O20">
+        <v>1.961441509171211E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
-        <v>83.99340268580595</v>
+        <v>83.99340268580592</v>
       </c>
       <c r="B21">
-        <v>5209.295083627048</v>
+        <v>5209.295083626901</v>
       </c>
       <c r="C21">
-        <v>7.484107735961001</v>
+        <v>7.484107735960792</v>
       </c>
       <c r="D21">
-        <v>27957.42809854908</v>
+        <v>27957.42809854907</v>
       </c>
       <c r="E21">
-        <v>8759.568564984105</v>
+        <v>8759.568564984111</v>
       </c>
       <c r="F21">
-        <v>8063.707313790741</v>
+        <v>8063.707313790743</v>
       </c>
       <c r="G21">
-        <v>19.8749829752276</v>
+        <v>19.87498297522763</v>
       </c>
       <c r="H21">
-        <v>39.28141968828573</v>
+        <v>39.28141968828576</v>
       </c>
       <c r="I21">
-        <v>1.734778011902944E-09</v>
+        <v>1.734778011902948E-09</v>
       </c>
       <c r="J21">
         <v>1.825219283586838E-09</v>
@@ -1361,144 +1487,168 @@
         <v>0.0003077309067813791</v>
       </c>
       <c r="L21">
-        <v>0.1774675331879802</v>
+        <v>0.1774675331879801</v>
       </c>
       <c r="M21">
-        <v>1442.018780721897</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.1774654843549721</v>
+      </c>
+      <c r="N21">
+        <v>1442.018780721896</v>
+      </c>
+      <c r="O21">
+        <v>2.048833008058693E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
-        <v>85.4675044302207</v>
+        <v>85.46750443022066</v>
       </c>
       <c r="B22">
-        <v>6468.329431058019</v>
+        <v>6468.329431057948</v>
       </c>
       <c r="C22">
-        <v>9.138397894499537</v>
+        <v>9.138397894499439</v>
       </c>
       <c r="D22">
         <v>27794.89078846094</v>
       </c>
       <c r="E22">
-        <v>8702.353340438962</v>
+        <v>8702.353340438964</v>
       </c>
       <c r="F22">
         <v>7994.767300757225</v>
       </c>
       <c r="G22">
-        <v>18.32036515280334</v>
+        <v>18.32036515280338</v>
       </c>
       <c r="H22">
-        <v>36.69426781080455</v>
+        <v>36.6942678108046</v>
       </c>
       <c r="I22">
-        <v>1.765620791227124E-09</v>
+        <v>1.765620791227125E-09</v>
       </c>
       <c r="J22">
-        <v>1.919720438720136E-09</v>
+        <v>1.919720438720134E-09</v>
       </c>
       <c r="K22">
-        <v>0.0002862569454566362</v>
+        <v>0.0002862569454566364</v>
       </c>
       <c r="L22">
-        <v>0.1781983654767299</v>
+        <v>0.1781983654767298</v>
       </c>
       <c r="M22">
-        <v>1432.806410507733</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.1781962230621499</v>
+      </c>
+      <c r="N22">
+        <v>1432.806410507732</v>
+      </c>
+      <c r="O22">
+        <v>2.142414579866563E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
-        <v>86.94160617463545</v>
+        <v>86.94160617463541</v>
       </c>
       <c r="B23">
-        <v>7963.543691878951</v>
+        <v>7963.543691878928</v>
       </c>
       <c r="C23">
-        <v>11.06793387122682</v>
+        <v>11.06793387122679</v>
       </c>
       <c r="D23">
         <v>27636.62863156695</v>
       </c>
       <c r="E23">
-        <v>8648.526235532225</v>
+        <v>8648.526235532223</v>
       </c>
       <c r="F23">
         <v>7929.299454843512</v>
       </c>
       <c r="G23">
-        <v>16.94880808537701</v>
+        <v>16.94880808537706</v>
       </c>
       <c r="H23">
-        <v>34.40860627864168</v>
+        <v>34.40860627864173</v>
       </c>
       <c r="I23">
-        <v>1.797766732117093E-09</v>
+        <v>1.797766732117092E-09</v>
       </c>
       <c r="J23">
-        <v>2.02079955900611E-09</v>
+        <v>2.020799559006109E-09</v>
       </c>
       <c r="K23">
-        <v>0.0002670995959286668</v>
+        <v>0.0002670995959286675</v>
       </c>
       <c r="L23">
-        <v>0.1788769071935284</v>
+        <v>0.1788769071935283</v>
       </c>
       <c r="M23">
+        <v>0.1788746647704491</v>
+      </c>
+      <c r="N23">
         <v>1423.275413657786</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="O23">
+        <v>2.242423079201425E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
-        <v>88.41570791905021</v>
+        <v>88.41570791905015</v>
       </c>
       <c r="B24">
-        <v>9726.45903287707</v>
+        <v>9726.459032877032</v>
       </c>
       <c r="C24">
-        <v>13.30334459724437</v>
+        <v>13.30334459724432</v>
       </c>
       <c r="D24">
-        <v>27482.21327385152</v>
+        <v>27482.21327385154</v>
       </c>
       <c r="E24">
-        <v>8597.643359553225</v>
+        <v>8597.643359553233</v>
       </c>
       <c r="F24">
-        <v>7866.86842815663</v>
+        <v>7866.868428156643</v>
       </c>
       <c r="G24">
-        <v>15.74287718625881</v>
+        <v>15.7428771862588</v>
       </c>
       <c r="H24">
-        <v>32.39515559432742</v>
+        <v>32.39515559432748</v>
       </c>
       <c r="I24">
-        <v>1.831297687435979E-09</v>
+        <v>1.831297687435975E-09</v>
       </c>
       <c r="J24">
-        <v>2.128740449216407E-09</v>
+        <v>2.128740449216399E-09</v>
       </c>
       <c r="K24">
-        <v>0.0002500425281361545</v>
+        <v>0.0002500425281361552</v>
       </c>
       <c r="L24">
-        <v>0.1794913355538624</v>
+        <v>0.1794913355538625</v>
       </c>
       <c r="M24">
-        <v>1413.428510724978</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.1794889864857098</v>
+      </c>
+      <c r="N24">
+        <v>1413.42851072498</v>
+      </c>
+      <c r="O24">
+        <v>2.349068152713376E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
-        <v>89.88980966346494</v>
+        <v>89.88980966346492</v>
       </c>
       <c r="B25">
-        <v>11790.98166394227</v>
+        <v>11790.98166394221</v>
       </c>
       <c r="C25">
-        <v>15.87683731324914</v>
+        <v>15.87683731324906</v>
       </c>
       <c r="D25">
         <v>27331.2519340887</v>
@@ -1507,244 +1657,280 @@
         <v>8549.301627256971</v>
       </c>
       <c r="F25">
-        <v>7807.079986923984</v>
+        <v>7807.079986923982</v>
       </c>
       <c r="G25">
-        <v>14.68571071830359</v>
+        <v>14.68571071830361</v>
       </c>
       <c r="H25">
-        <v>30.62663986291451</v>
+        <v>30.62663986291454</v>
       </c>
       <c r="I25">
         <v>1.8662971016824E-09</v>
       </c>
       <c r="J25">
-        <v>2.243800155850262E-09</v>
+        <v>2.24380015585026E-09</v>
       </c>
       <c r="K25">
-        <v>0.000234852116553238</v>
+        <v>0.0002348521165532382</v>
       </c>
       <c r="L25">
-        <v>0.1800310048377626</v>
+        <v>0.1800310048377625</v>
       </c>
       <c r="M25">
+        <v>0.1800285423101326</v>
+      </c>
+      <c r="N25">
         <v>1403.27957612802</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="O25">
+        <v>2.462527629951111E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
-        <v>91.36391140787971</v>
+        <v>91.36391140787967</v>
       </c>
       <c r="B26">
-        <v>14193.40000011683</v>
+        <v>14193.40000011663</v>
       </c>
       <c r="C26">
-        <v>18.82214307061803</v>
+        <v>18.82214307061777</v>
       </c>
       <c r="D26">
-        <v>27183.38384929465</v>
+        <v>27183.38384929466</v>
       </c>
       <c r="E26">
-        <v>8503.135820356614</v>
+        <v>8503.135820356609</v>
       </c>
       <c r="F26">
         <v>7749.578042978728</v>
       </c>
       <c r="G26">
-        <v>13.76130942909116</v>
+        <v>13.76130942909118</v>
       </c>
       <c r="H26">
-        <v>29.07789114108591</v>
+        <v>29.07789114108596</v>
       </c>
       <c r="I26">
-        <v>1.902850697124559E-09</v>
+        <v>1.902850697124556E-09</v>
       </c>
       <c r="J26">
-        <v>2.366204192475476E-09</v>
+        <v>2.366204192475472E-09</v>
       </c>
       <c r="K26">
-        <v>0.0002212988798910484</v>
+        <v>0.0002212988798910489</v>
       </c>
       <c r="L26">
-        <v>0.1804860683155271</v>
+        <v>0.1804860683155272</v>
       </c>
       <c r="M26">
-        <v>1392.850436610254</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>0.1804834853719753</v>
+      </c>
+      <c r="N26">
+        <v>1392.850436610255</v>
+      </c>
+      <c r="O26">
+        <v>2.582943551909218E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
-        <v>92.83801315229447</v>
+        <v>92.83801315229441</v>
       </c>
       <c r="B27">
-        <v>16972.36894629564</v>
+        <v>16972.36894629547</v>
       </c>
       <c r="C27">
-        <v>22.17446001669133</v>
+        <v>22.17446001669112</v>
       </c>
       <c r="D27">
-        <v>27038.27710137113</v>
+        <v>27038.27710137114</v>
       </c>
       <c r="E27">
-        <v>8458.815566069896</v>
+        <v>8458.815566069892</v>
       </c>
       <c r="F27">
-        <v>7694.041602592488</v>
+        <v>7694.041602592486</v>
       </c>
       <c r="G27">
-        <v>12.95471771206404</v>
+        <v>12.95471771206398</v>
       </c>
       <c r="H27">
-        <v>27.72587097833279</v>
+        <v>27.72587097833273</v>
       </c>
       <c r="I27">
-        <v>1.941047151303003E-09</v>
+        <v>1.941047151302997E-09</v>
       </c>
       <c r="J27">
-        <v>2.496142330816802E-09</v>
+        <v>2.496142330816794E-09</v>
       </c>
       <c r="K27">
-        <v>0.0002091700292716497</v>
+        <v>0.0002091700292716505</v>
       </c>
       <c r="L27">
         <v>0.1808470923488494</v>
       </c>
       <c r="M27">
-        <v>1382.168010218601</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>0.1808443819297504</v>
+      </c>
+      <c r="N27">
+        <v>1382.168010218604</v>
+      </c>
+      <c r="O27">
+        <v>2.710419098965905E-06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
-        <v>94.31211489670922</v>
+        <v>94.31211489670918</v>
       </c>
       <c r="B28">
-        <v>20168.8820272524</v>
+        <v>20168.88202725239</v>
       </c>
       <c r="C28">
         <v>25.97039594817354</v>
       </c>
       <c r="D28">
-        <v>26895.62577912891</v>
+        <v>26895.62577912892</v>
       </c>
       <c r="E28">
-        <v>8416.042333982939</v>
+        <v>8416.042333982947</v>
       </c>
       <c r="F28">
-        <v>7640.181734467221</v>
+        <v>7640.181734467225</v>
       </c>
       <c r="G28">
-        <v>12.25212341867039</v>
+        <v>12.25212341867042</v>
       </c>
       <c r="H28">
-        <v>26.54963258464918</v>
+        <v>26.5496325846492</v>
       </c>
       <c r="I28">
         <v>1.980978771102647E-09</v>
       </c>
       <c r="J28">
-        <v>2.633765178175115E-09</v>
+        <v>2.633765178175108E-09</v>
       </c>
       <c r="K28">
-        <v>0.0001982754488785187</v>
+        <v>0.0001982754488785189</v>
       </c>
       <c r="L28">
         <v>0.1811047401272849</v>
       </c>
       <c r="M28">
-        <v>1371.261857952246</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>0.1811018951106217</v>
+      </c>
+      <c r="N28">
+        <v>1371.261857952245</v>
+      </c>
+      <c r="O28">
+        <v>2.845016663256125E-06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
-        <v>95.78621664112397</v>
+        <v>95.78621664112391</v>
       </c>
       <c r="B29">
-        <v>23826.23221084225</v>
+        <v>23826.23221084194</v>
       </c>
       <c r="C29">
-        <v>30.24791153800806</v>
+        <v>30.24791153800767</v>
       </c>
       <c r="D29">
         <v>26755.14743573341</v>
       </c>
       <c r="E29">
-        <v>8374.546522099548</v>
+        <v>8374.54652209955</v>
       </c>
       <c r="F29">
-        <v>7587.738628227506</v>
+        <v>7587.738628227508</v>
       </c>
       <c r="G29">
-        <v>11.64089759008716</v>
+        <v>11.64089759008721</v>
       </c>
       <c r="H29">
-        <v>25.53024175491315</v>
+        <v>25.53024175491323</v>
       </c>
       <c r="I29">
-        <v>2.022742169300409E-09</v>
+        <v>2.022742169300408E-09</v>
       </c>
       <c r="J29">
-        <v>2.779181735127268E-09</v>
+        <v>2.779181735127267E-09</v>
       </c>
       <c r="K29">
-        <v>0.0001884493295572308</v>
+        <v>0.0001884493295572312</v>
       </c>
       <c r="L29">
-        <v>0.1812495857061953</v>
+        <v>0.1812495857061952</v>
       </c>
       <c r="M29">
-        <v>1360.162186343064</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>0.1812465989489195</v>
+      </c>
+      <c r="N29">
+        <v>1360.162186343065</v>
+      </c>
+      <c r="O29">
+        <v>2.986757275698865E-06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
-        <v>97.26031838553872</v>
+        <v>97.26031838553867</v>
       </c>
       <c r="B30">
-        <v>27989.96236767718</v>
+        <v>27989.9623676771</v>
       </c>
       <c r="C30">
-        <v>35.04626554391977</v>
+        <v>35.04626554391968</v>
       </c>
       <c r="D30">
         <v>26616.58080668784</v>
       </c>
       <c r="E30">
-        <v>8334.08467963341</v>
+        <v>8334.084679633412</v>
       </c>
       <c r="F30">
         <v>7536.478791365669</v>
       </c>
       <c r="G30">
-        <v>11.10959069230156</v>
+        <v>11.10959069230162</v>
       </c>
       <c r="H30">
-        <v>24.65067046253313</v>
+        <v>24.65067046253321</v>
       </c>
       <c r="I30">
-        <v>2.066438950073472E-09</v>
+        <v>2.066438950073473E-09</v>
       </c>
       <c r="J30">
-        <v>2.932458084777878E-09</v>
+        <v>2.932458084777873E-09</v>
       </c>
       <c r="K30">
-        <v>0.0001795492289403961</v>
+        <v>0.0001795492289403965</v>
       </c>
       <c r="L30">
         <v>0.1812720932330857</v>
       </c>
       <c r="M30">
+        <v>0.1812689576115392</v>
+      </c>
+      <c r="N30">
         <v>1348.898304230774</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="O30">
+        <v>3.135621546495689E-06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
-        <v>98.73442012995348</v>
+        <v>98.73442012995341</v>
       </c>
       <c r="B31">
-        <v>32707.80637755972</v>
+        <v>32707.80637755966</v>
       </c>
       <c r="C31">
-        <v>40.40596319771323</v>
+        <v>40.4059631977132</v>
       </c>
       <c r="D31">
         <v>26479.68375786869</v>
@@ -1756,221 +1942,251 @@
         <v>7486.192414823261</v>
       </c>
       <c r="G31">
-        <v>10.64789820486039</v>
+        <v>10.64789820486036</v>
       </c>
       <c r="H31">
-        <v>23.89567369699311</v>
+        <v>23.8956736969931</v>
       </c>
       <c r="I31">
-        <v>2.112176410457442E-09</v>
+        <v>2.112176410457438E-09</v>
       </c>
       <c r="J31">
-        <v>3.093617309014672E-09</v>
+        <v>3.093617309014665E-09</v>
       </c>
       <c r="K31">
-        <v>0.0001714538182275133</v>
+        <v>0.0001714538182275136</v>
       </c>
       <c r="L31">
-        <v>0.1811627660102586</v>
+        <v>0.1811627660102587</v>
       </c>
       <c r="M31">
-        <v>1337.497507113784</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>0.1811594744580449</v>
+      </c>
+      <c r="N31">
+        <v>1337.497507113786</v>
+      </c>
+      <c r="O31">
+        <v>3.291552213789559E-06</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>100.2085218743682</v>
       </c>
       <c r="B32">
-        <v>38029.62193348389</v>
+        <v>38029.62193348329</v>
       </c>
       <c r="C32">
-        <v>46.36870885940301</v>
+        <v>46.36870885940229</v>
       </c>
       <c r="D32">
         <v>26344.23143694432</v>
       </c>
       <c r="E32">
-        <v>8255.404375471591</v>
+        <v>8255.404375471593</v>
       </c>
       <c r="F32">
-        <v>7436.690924053399</v>
+        <v>7436.690924053401</v>
       </c>
       <c r="G32">
-        <v>10.24660544793334</v>
+        <v>10.24660544793337</v>
       </c>
       <c r="H32">
-        <v>23.25165748935992</v>
+        <v>23.25165748935993</v>
       </c>
       <c r="I32">
-        <v>2.160068265216203E-09</v>
+        <v>2.160068265216202E-09</v>
       </c>
       <c r="J32">
-        <v>3.262640662832017E-09</v>
+        <v>3.262640662832009E-09</v>
       </c>
       <c r="K32">
-        <v>0.0001640601299246554</v>
+        <v>0.0001640601299246556</v>
       </c>
       <c r="L32">
         <v>0.1809124406898722</v>
       </c>
       <c r="M32">
+        <v>0.1809089862315487</v>
+      </c>
+      <c r="N32">
         <v>1325.984340964493</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="O32">
+        <v>3.454458323515152E-06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
-        <v>101.682623618783</v>
+        <v>101.6826236187829</v>
       </c>
       <c r="B33">
-        <v>44007.3161108821</v>
+        <v>44007.31611088153</v>
       </c>
       <c r="C33">
-        <v>52.97736390501685</v>
+        <v>52.97736390501619</v>
       </c>
       <c r="D33">
-        <v>26210.01460481872</v>
+        <v>26210.01460481873</v>
       </c>
       <c r="E33">
-        <v>8216.807195709778</v>
+        <v>8216.807195709782</v>
       </c>
       <c r="F33">
-        <v>7387.804722548959</v>
+        <v>7387.804722548964</v>
       </c>
       <c r="G33">
-        <v>9.897519183805073</v>
+        <v>9.897519183805045</v>
       </c>
       <c r="H33">
-        <v>22.70654400544001</v>
+        <v>22.70654400543999</v>
       </c>
       <c r="I33">
-        <v>2.21023540306444E-09</v>
+        <v>2.210235403064437E-09</v>
       </c>
       <c r="J33">
-        <v>3.439469970530712E-09</v>
+        <v>3.439469970530706E-09</v>
       </c>
       <c r="K33">
-        <v>0.0001572807852444941</v>
+        <v>0.0001572807852444943</v>
       </c>
       <c r="L33">
         <v>0.1805126788361374</v>
       </c>
       <c r="M33">
-        <v>1314.380185064636</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>0.1805090546151466</v>
+      </c>
+      <c r="N33">
+        <v>1314.380185064637</v>
+      </c>
+      <c r="O33">
+        <v>3.62422099073566E-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>103.1567253631977</v>
       </c>
       <c r="B34">
-        <v>50694.76476604681</v>
+        <v>50694.76476604654</v>
       </c>
       <c r="C34">
-        <v>60.27591070617208</v>
+        <v>60.27591070617181</v>
       </c>
       <c r="D34">
-        <v>26076.83812661544</v>
+        <v>26076.83812661545</v>
       </c>
       <c r="E34">
-        <v>8178.482264209708</v>
+        <v>8178.482264209707</v>
       </c>
       <c r="F34">
         <v>7339.381127672727</v>
       </c>
       <c r="G34">
-        <v>9.593391675112915</v>
+        <v>9.593391675112905</v>
       </c>
       <c r="H34">
-        <v>22.24963797370718</v>
+        <v>22.24963797370714</v>
       </c>
       <c r="I34">
-        <v>2.262806682700983E-09</v>
+        <v>2.262806682700981E-09</v>
       </c>
       <c r="J34">
-        <v>3.62401114355821E-09</v>
+        <v>3.624011143558197E-09</v>
       </c>
       <c r="K34">
-        <v>0.0001510414505382762</v>
+        <v>0.0001510414505382763</v>
       </c>
       <c r="L34">
-        <v>0.1799561958338667</v>
+        <v>0.1799561958338668</v>
       </c>
       <c r="M34">
+        <v>0.1799523951332413</v>
+      </c>
+      <c r="N34">
         <v>1302.703089283711</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="O34">
+        <v>3.800700625426933E-06</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
-        <v>104.6308271076125</v>
+        <v>104.6308271076124</v>
       </c>
       <c r="B35">
-        <v>58147.72680658359</v>
+        <v>58147.72680658336</v>
       </c>
       <c r="C35">
-        <v>68.30942345732359</v>
+        <v>68.30942345732335</v>
       </c>
       <c r="D35">
         <v>25944.51960421039</v>
       </c>
       <c r="E35">
-        <v>8140.281453051552</v>
+        <v>8140.281453051551</v>
       </c>
       <c r="F35">
-        <v>7291.282493577925</v>
+        <v>7291.282493577924</v>
       </c>
       <c r="G35">
-        <v>9.327841424272792</v>
+        <v>9.327841424272798</v>
       </c>
       <c r="H35">
         <v>21.8714974622982</v>
       </c>
       <c r="I35">
-        <v>2.317919777696283E-09</v>
+        <v>2.317919777696282E-09</v>
       </c>
       <c r="J35">
-        <v>3.816138664573878E-09</v>
+        <v>3.816138664573874E-09</v>
       </c>
       <c r="K35">
-        <v>0.0001452786274984853</v>
+        <v>0.0001452786274984854</v>
       </c>
       <c r="L35">
         <v>0.1792372682189211</v>
       </c>
       <c r="M35">
+        <v>0.1792332844734715</v>
+      </c>
+      <c r="N35">
         <v>1290.967803414371</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="O35">
+        <v>3.983745449561213E-06</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>106.1049288520272</v>
       </c>
       <c r="B36">
-        <v>66423.75434172146</v>
+        <v>66423.75434172124</v>
       </c>
       <c r="C36">
-        <v>77.12404651626883</v>
+        <v>77.12404651626863</v>
       </c>
       <c r="D36">
         <v>25812.88813448674</v>
       </c>
       <c r="E36">
-        <v>8102.069911872052</v>
+        <v>8102.069911872061</v>
       </c>
       <c r="F36">
-        <v>7243.384512575311</v>
+        <v>7243.384512575318</v>
       </c>
       <c r="G36">
-        <v>9.095273677067295</v>
+        <v>9.09527367706729</v>
       </c>
       <c r="H36">
-        <v>21.5638110524493</v>
+        <v>21.56381105244932</v>
       </c>
       <c r="I36">
         <v>2.37572207995652E-09</v>
       </c>
       <c r="J36">
-        <v>4.015700840502406E-09</v>
+        <v>4.015700840502401E-09</v>
       </c>
       <c r="K36">
         <v>0.0001399377977703531</v>
@@ -1979,264 +2195,306 @@
         <v>0.1783520745373063</v>
       </c>
       <c r="M36">
+        <v>0.1783479013362145</v>
+      </c>
+      <c r="N36">
         <v>1279.18594256158</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="O36">
+        <v>4.173201091769089E-06</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
-        <v>107.579030596442</v>
+        <v>107.5790305964419</v>
       </c>
       <c r="B37">
-        <v>75582.0996744127</v>
+        <v>75582.09967441247</v>
       </c>
       <c r="C37">
-        <v>86.76698084754318</v>
+        <v>86.76698084754297</v>
       </c>
       <c r="D37">
-        <v>25681.78317936508</v>
+        <v>25681.78317936509</v>
       </c>
       <c r="E37">
         <v>8063.72454533659</v>
       </c>
       <c r="F37">
-        <v>7195.574684098175</v>
+        <v>7195.574684098173</v>
       </c>
       <c r="G37">
-        <v>8.89080288445159</v>
+        <v>8.890802884451595</v>
       </c>
       <c r="H37">
-        <v>21.31928271564363</v>
+        <v>21.31928271564364</v>
       </c>
       <c r="I37">
-        <v>2.43637167228607E-09</v>
+        <v>2.436371672286069E-09</v>
       </c>
       <c r="J37">
-        <v>4.222525601684735E-09</v>
+        <v>4.222525601684723E-09</v>
       </c>
       <c r="K37">
-        <v>0.000134971898520143</v>
+        <v>0.0001349718985201431</v>
       </c>
       <c r="L37">
         <v>0.1772989479257181</v>
       </c>
       <c r="M37">
+        <v>0.1772945790046947</v>
+      </c>
+      <c r="N37">
         <v>1267.366241210268</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="O37">
+        <v>4.36892102341067E-06</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>109.0531323408567</v>
       </c>
       <c r="B38">
-        <v>85683.62004346725</v>
+        <v>85683.62004346664</v>
       </c>
       <c r="C38">
-        <v>97.28647909887118</v>
+        <v>97.28647909887054</v>
       </c>
       <c r="D38">
-        <v>25551.05353529309</v>
+        <v>25551.0535352931</v>
       </c>
       <c r="E38">
-        <v>8025.132643405096</v>
+        <v>8025.13264340509</v>
       </c>
       <c r="F38">
-        <v>7147.750939136961</v>
+        <v>7147.750939136958</v>
       </c>
       <c r="G38">
-        <v>8.710178629007578</v>
+        <v>8.710178629007538</v>
       </c>
       <c r="H38">
-        <v>21.13152514121048</v>
+        <v>21.13152514121046</v>
       </c>
       <c r="I38">
-        <v>2.500038381516937E-09</v>
+        <v>2.50003838151693E-09</v>
       </c>
       <c r="J38">
-        <v>4.436426615647949E-09</v>
+        <v>4.436426615647938E-09</v>
       </c>
       <c r="K38">
-        <v>0.0001303400861363771</v>
+        <v>0.0001303400861363774</v>
       </c>
       <c r="L38">
-        <v>0.176078543827418</v>
+        <v>0.1760785438274182</v>
       </c>
       <c r="M38">
-        <v>1255.514857931192</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>0.1760739730498226</v>
+      </c>
+      <c r="N38">
+        <v>1255.514857931194</v>
+      </c>
+      <c r="O38">
+        <v>4.570777595623391E-06</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
-        <v>110.5272340852715</v>
+        <v>110.5272340852714</v>
       </c>
       <c r="B39">
-        <v>96790.68096515292</v>
+        <v>96790.68096515203</v>
       </c>
       <c r="C39">
-        <v>108.7318497993539</v>
+        <v>108.7318497993529</v>
       </c>
       <c r="D39">
         <v>25420.55639129811</v>
       </c>
       <c r="E39">
-        <v>7986.190651689518</v>
+        <v>7986.190651689515</v>
       </c>
       <c r="F39">
-        <v>7099.820407418867</v>
+        <v>7099.820407418866</v>
       </c>
       <c r="G39">
-        <v>8.549715994997257</v>
+        <v>8.549715994997268</v>
       </c>
       <c r="H39">
-        <v>20.99496184239503</v>
+        <v>20.99496184239504</v>
       </c>
       <c r="I39">
-        <v>2.56690492479447E-09</v>
+        <v>2.566904924794467E-09</v>
       </c>
       <c r="J39">
-        <v>4.657209491538306E-09</v>
+        <v>4.657209491538294E-09</v>
       </c>
       <c r="K39">
-        <v>0.0001260067400968388</v>
+        <v>0.000126006740096839</v>
       </c>
       <c r="L39">
-        <v>0.1746939452247464</v>
+        <v>0.1746939452247465</v>
       </c>
       <c r="M39">
+        <v>0.1746891665512968</v>
+      </c>
+      <c r="N39">
         <v>1243.635701659882</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="O39">
+        <v>4.778673449650521E-06</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
         <v>112.0013358296862</v>
       </c>
       <c r="B40">
-        <v>108967.0589621576</v>
+        <v>108967.0589621573</v>
       </c>
       <c r="C40">
-        <v>121.1534711457887</v>
+        <v>121.1534711457884</v>
       </c>
       <c r="D40">
-        <v>25290.156465937</v>
+        <v>25290.15646593701</v>
       </c>
       <c r="E40">
-        <v>7946.803069103996</v>
+        <v>7946.803069103998</v>
       </c>
       <c r="F40">
-        <v>7051.698314508254</v>
+        <v>7051.698314508257</v>
       </c>
       <c r="G40">
-        <v>8.406230960567902</v>
+        <v>8.406230960567878</v>
       </c>
       <c r="H40">
-        <v>20.90473806177554</v>
+        <v>20.90473806177553</v>
       </c>
       <c r="I40">
-        <v>2.637168162935956E-09</v>
+        <v>2.637168162935951E-09</v>
       </c>
       <c r="J40">
-        <v>4.884677872426735E-09</v>
+        <v>4.884677872426728E-09</v>
       </c>
       <c r="K40">
-        <v>0.0001219406613637133</v>
+        <v>0.0001219406613637135</v>
       </c>
       <c r="L40">
-        <v>0.1731507331753723</v>
+        <v>0.1731507331753724</v>
       </c>
       <c r="M40">
-        <v>1231.730758460319</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>0.1731457406222735</v>
+      </c>
+      <c r="N40">
+        <v>1231.730758460321</v>
+      </c>
+      <c r="O40">
+        <v>4.992553098924178E-06</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
-        <v>113.475437574101</v>
+        <v>113.4754375741009</v>
       </c>
       <c r="B41">
-        <v>122277.8444057103</v>
+        <v>122277.8444057099</v>
       </c>
       <c r="C41">
-        <v>134.6028148415356</v>
+        <v>134.6028148415352</v>
       </c>
       <c r="D41">
         <v>25159.72521454878</v>
       </c>
       <c r="E41">
-        <v>7906.881460255291</v>
+        <v>7906.881460255294</v>
       </c>
       <c r="F41">
-        <v>7003.306996254577</v>
+        <v>7003.306996254579</v>
       </c>
       <c r="G41">
-        <v>8.276981090798332</v>
+        <v>8.276981090798296</v>
       </c>
       <c r="H41">
-        <v>20.8566402771959</v>
+        <v>20.85664027719588</v>
       </c>
       <c r="I41">
-        <v>2.711040476346401E-09</v>
+        <v>2.711040476346402E-09</v>
       </c>
       <c r="J41">
-        <v>5.118639244009944E-09</v>
+        <v>5.118639244009936E-09</v>
       </c>
       <c r="K41">
-        <v>0.0001181144253646859</v>
+        <v>0.000118114425364686</v>
       </c>
       <c r="L41">
         <v>0.1714570389570404</v>
       </c>
       <c r="M41">
+        <v>0.171451826542523</v>
+      </c>
+      <c r="N41">
         <v>1219.800404365148</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="O41">
+        <v>5.212414517390301E-06</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>114.9495393185157</v>
       </c>
       <c r="B42">
-        <v>136789.3451357328</v>
+        <v>136789.3451357325</v>
       </c>
       <c r="C42">
-        <v>149.1324804715377</v>
+        <v>149.1324804715374</v>
       </c>
       <c r="D42">
-        <v>25029.14009914594</v>
+        <v>25029.14009914595</v>
       </c>
       <c r="E42">
-        <v>7866.343570498844</v>
+        <v>7866.343570498852</v>
       </c>
       <c r="F42">
-        <v>6954.575018502454</v>
+        <v>6954.575018502461</v>
       </c>
       <c r="G42">
-        <v>8.159611589591108</v>
+        <v>8.159611589591146</v>
       </c>
       <c r="H42">
-        <v>20.84702395777343</v>
+        <v>20.84702395777346</v>
       </c>
       <c r="I42">
-        <v>2.788751280824576E-09</v>
+        <v>2.788751280824574E-09</v>
       </c>
       <c r="J42">
-        <v>5.358910325742291E-09</v>
+        <v>5.358910325742278E-09</v>
       </c>
       <c r="K42">
-        <v>0.0001145038563341757</v>
+        <v>0.0001145038563341759</v>
       </c>
       <c r="L42">
-        <v>0.1696235686416609</v>
+        <v>0.169623568641661</v>
       </c>
       <c r="M42">
+        <v>0.1696181303210512</v>
+      </c>
+      <c r="N42">
         <v>1207.843695208209</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="O42">
+        <v>5.438320609743984E-06</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
-        <v>116.4236410629305</v>
+        <v>116.4236410629304</v>
       </c>
       <c r="B43">
-        <v>152568.9914656727</v>
+        <v>152568.991465671</v>
       </c>
       <c r="C43">
-        <v>164.7962409384849</v>
+        <v>164.7962409384831</v>
       </c>
       <c r="D43">
         <v>24898.28391409001</v>
@@ -2245,754 +2503,862 @@
         <v>7825.112532211872</v>
       </c>
       <c r="F43">
-        <v>6905.436390619462</v>
+        <v>6905.436390619463</v>
       </c>
       <c r="G43">
-        <v>8.052106609781259</v>
+        <v>8.052106609781308</v>
       </c>
       <c r="H43">
-        <v>20.87274912062053</v>
+        <v>20.87274912062056</v>
       </c>
       <c r="I43">
-        <v>2.870548702769955E-09</v>
+        <v>2.870548702769953E-09</v>
       </c>
       <c r="J43">
-        <v>5.605321950263892E-09</v>
+        <v>5.605321950263883E-09</v>
       </c>
       <c r="K43">
         <v>0.0001110875962941195</v>
       </c>
       <c r="L43">
-        <v>0.1676635609047989</v>
+        <v>0.167663560904799</v>
       </c>
       <c r="M43">
+        <v>0.1676578904943173</v>
+      </c>
+      <c r="N43">
         <v>1195.858628422424</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="O43">
+        <v>5.670410481725372E-06</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
-        <v>117.8977428073453</v>
+        <v>117.8977428073452</v>
       </c>
       <c r="B44">
-        <v>169685.2431244313</v>
+        <v>169685.2431244294</v>
       </c>
       <c r="C44">
-        <v>181.6490995498179</v>
+        <v>181.6490995498159</v>
       </c>
       <c r="D44">
-        <v>24767.04416139876</v>
+        <v>24767.04416139877</v>
       </c>
       <c r="E44">
-        <v>7783.116151542019</v>
+        <v>7783.116151542021</v>
       </c>
       <c r="F44">
-        <v>6855.829862123227</v>
+        <v>6855.829862123228</v>
       </c>
       <c r="G44">
-        <v>7.952745610474564</v>
+        <v>7.952745610474553</v>
       </c>
       <c r="H44">
-        <v>20.93112318037322</v>
+        <v>20.93112318037323</v>
       </c>
       <c r="I44">
-        <v>2.956701435863911E-09</v>
+        <v>2.956701435863906E-09</v>
       </c>
       <c r="J44">
-        <v>5.857723375746064E-09</v>
+        <v>5.857723375746044E-09</v>
       </c>
       <c r="K44">
-        <v>0.0001078467476843752</v>
+        <v>0.0001078467476843754</v>
       </c>
       <c r="L44">
-        <v>0.1655926179725566</v>
+        <v>0.1655926179725567</v>
       </c>
       <c r="M44">
-        <v>1183.842374734185</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>0.1655867090620879</v>
+      </c>
+      <c r="N44">
+        <v>1183.842374734186</v>
+      </c>
+      <c r="O44">
+        <v>5.908910468848864E-06</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
-        <v>119.37184455176</v>
+        <v>119.3718445517599</v>
       </c>
       <c r="B45">
-        <v>188207.4986385349</v>
+        <v>188207.4986385343</v>
       </c>
       <c r="C45">
-        <v>199.7473594346035</v>
+        <v>199.7473594346029</v>
       </c>
       <c r="D45">
         <v>24635.31247014457</v>
       </c>
       <c r="E45">
-        <v>7740.28626563331</v>
+        <v>7740.286265633307</v>
       </c>
       <c r="F45">
         <v>6805.698292454609</v>
       </c>
       <c r="G45">
-        <v>7.860064477540556</v>
+        <v>7.860064477540531</v>
       </c>
       <c r="H45">
-        <v>21.01985055568903</v>
+        <v>21.019850555689</v>
       </c>
       <c r="I45">
-        <v>3.047500804312769E-09</v>
+        <v>3.047500804312764E-09</v>
       </c>
       <c r="J45">
-        <v>6.115986010824726E-09</v>
+        <v>6.115986010824717E-09</v>
       </c>
       <c r="K45">
-        <v>0.0001047645734250054</v>
+        <v>0.0001047645734250056</v>
       </c>
       <c r="L45">
-        <v>0.1634283504764923</v>
+        <v>0.1634283504764924</v>
       </c>
       <c r="M45">
-        <v>1171.791479740973</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>0.163422196331575</v>
+      </c>
+      <c r="N45">
+        <v>1171.791479740974</v>
+      </c>
+      <c r="O45">
+        <v>6.154144917430307E-06</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
-        <v>120.8459462961748</v>
+        <v>120.8459462961747</v>
       </c>
       <c r="B46">
-        <v>208206.0076141591</v>
+        <v>208206.0076141573</v>
       </c>
       <c r="C46">
-        <v>219.1487060848176</v>
+        <v>219.1487060848158</v>
       </c>
       <c r="D46">
-        <v>24502.98405493161</v>
+        <v>24502.98405493162</v>
       </c>
       <c r="E46">
-        <v>7696.558161074002</v>
+        <v>7696.558161074001</v>
       </c>
       <c r="F46">
-        <v>6754.988084710706</v>
+        <v>6754.988084710705</v>
       </c>
       <c r="G46">
-        <v>7.772821078578144</v>
+        <v>7.77282107857812</v>
       </c>
       <c r="H46">
-        <v>21.13698849185214</v>
+        <v>21.13698849185209</v>
       </c>
       <c r="I46">
-        <v>3.143263061288852E-09</v>
+        <v>3.143263061288843E-09</v>
       </c>
       <c r="J46">
-        <v>6.380006561380867E-09</v>
+        <v>6.380006561380839E-09</v>
       </c>
       <c r="K46">
-        <v>0.0001018262420217878</v>
+        <v>0.0001018262420217882</v>
       </c>
       <c r="L46">
-        <v>0.1611898050861861</v>
+        <v>0.1611898050861864</v>
       </c>
       <c r="M46">
-        <v>1159.702036705236</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>0.1611833985394455</v>
+      </c>
+      <c r="N46">
+        <v>1159.702036705237</v>
+      </c>
+      <c r="O46">
+        <v>6.406546740900074E-06</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
-        <v>122.3200480405895</v>
+        <v>122.3200480405894</v>
       </c>
       <c r="B47">
-        <v>229751.786341659</v>
+        <v>229751.7863416563</v>
       </c>
       <c r="C47">
-        <v>239.9123039594771</v>
+        <v>239.9123039594743</v>
       </c>
       <c r="D47">
-        <v>24369.95720889932</v>
+        <v>24369.95720889933</v>
       </c>
       <c r="E47">
-        <v>7651.87004503012</v>
+        <v>7651.870045030118</v>
       </c>
       <c r="F47">
-        <v>6703.64867489612</v>
+        <v>6703.648674896117</v>
       </c>
       <c r="G47">
-        <v>7.689964900504282</v>
+        <v>7.689964900504297</v>
       </c>
       <c r="H47">
-        <v>21.2809085703986</v>
+        <v>21.28090857039858</v>
       </c>
       <c r="I47">
-        <v>3.244331955384546E-09</v>
+        <v>3.244331955384539E-09</v>
       </c>
       <c r="J47">
-        <v>6.649709631659977E-09</v>
+        <v>6.649709631659958E-09</v>
       </c>
       <c r="K47">
-        <v>9.90186083199057E-05</v>
+        <v>9.901860831990581E-05</v>
       </c>
       <c r="L47">
-        <v>0.1588966932087974</v>
+        <v>0.1588966932087976</v>
       </c>
       <c r="M47">
-        <v>1147.569832708896</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>0.1588900265410009</v>
+      </c>
+      <c r="N47">
+        <v>1147.569832708897</v>
+      </c>
+      <c r="O47">
+        <v>6.666667796729098E-06</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
-        <v>123.7941497850043</v>
+        <v>123.7941497850042</v>
       </c>
       <c r="B48">
-        <v>252916.5371150193</v>
+        <v>252916.5371150162</v>
       </c>
       <c r="C48">
-        <v>262.0989082643478</v>
+        <v>262.0989082643446</v>
       </c>
       <c r="D48">
-        <v>24236.13282709418</v>
+        <v>24236.1328270942</v>
       </c>
       <c r="E48">
-        <v>7606.162561206525</v>
+        <v>7606.162561206529</v>
       </c>
       <c r="F48">
-        <v>6651.632068955251</v>
+        <v>6651.632068955258</v>
       </c>
       <c r="G48">
-        <v>7.610610410693596</v>
+        <v>7.610610410693629</v>
       </c>
       <c r="H48">
-        <v>21.45026340057557</v>
+        <v>21.45026340057558</v>
       </c>
       <c r="I48">
-        <v>3.351081602823829E-09</v>
+        <v>3.351081602823821E-09</v>
       </c>
       <c r="J48">
-        <v>6.925049828952308E-09</v>
+        <v>6.925049828952284E-09</v>
       </c>
       <c r="K48">
-        <v>9.633002280783229E-05</v>
+        <v>9.633002280783243E-05</v>
       </c>
       <c r="L48">
-        <v>0.1565684934620755</v>
+        <v>0.1565684934620757</v>
       </c>
       <c r="M48">
+        <v>0.156561558272931</v>
+      </c>
+      <c r="N48">
         <v>1135.390470734873</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="O48">
+        <v>6.935189144626205E-06</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
-        <v>125.268251529419</v>
+        <v>125.2682515294189</v>
       </c>
       <c r="B49">
-        <v>277772.5716359454</v>
+        <v>277772.5716359447</v>
       </c>
       <c r="C49">
-        <v>285.7709932280493</v>
+        <v>285.7709932280488</v>
       </c>
       <c r="D49">
-        <v>24101.41395639227</v>
+        <v>24101.41395639229</v>
       </c>
       <c r="E49">
-        <v>7559.378343402512</v>
+        <v>7559.378343402508</v>
       </c>
       <c r="F49">
         <v>6598.892420500069</v>
       </c>
       <c r="G49">
-        <v>7.534013786894012</v>
+        <v>7.534013786894033</v>
       </c>
       <c r="H49">
-        <v>21.64395801979262</v>
+        <v>21.64395801979259</v>
       </c>
       <c r="I49">
-        <v>3.46391970899946E-09</v>
+        <v>3.463919708999446E-09</v>
       </c>
       <c r="J49">
-        <v>7.206013431711376E-09</v>
+        <v>7.206013431711356E-09</v>
       </c>
       <c r="K49">
-        <v>9.375016411255864E-05</v>
+        <v>9.375016411255889E-05</v>
       </c>
       <c r="L49">
-        <v>0.1542235399653678</v>
+        <v>0.1542235399653679</v>
       </c>
       <c r="M49">
-        <v>1123.15947039249</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>0.154216327034112</v>
+      </c>
+      <c r="N49">
+        <v>1123.159470392492</v>
+      </c>
+      <c r="O49">
+        <v>7.212931255969049E-06</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
-        <v>126.7423532738338</v>
+        <v>126.7423532738337</v>
       </c>
       <c r="B50">
-        <v>304392.7388569277</v>
+        <v>304392.7388569273</v>
       </c>
       <c r="C50">
-        <v>310.9928984400927</v>
+        <v>310.9928984400926</v>
       </c>
       <c r="D50">
-        <v>23965.70536844355</v>
+        <v>23965.70536844356</v>
       </c>
       <c r="E50">
-        <v>7511.461599997193</v>
+        <v>7511.461599997194</v>
       </c>
       <c r="F50">
         <v>6545.385642741418</v>
       </c>
       <c r="G50">
-        <v>7.459552673586244</v>
+        <v>7.459552673586225</v>
       </c>
       <c r="H50">
         <v>21.86112556830244</v>
       </c>
       <c r="I50">
-        <v>3.583291189800224E-09</v>
+        <v>3.583291189800222E-09</v>
       </c>
       <c r="J50">
-        <v>7.492619686387771E-09</v>
+        <v>7.492619686387755E-09</v>
       </c>
       <c r="K50">
-        <v>9.126989063180245E-05</v>
+        <v>9.126989063180261E-05</v>
       </c>
       <c r="L50">
-        <v>0.1518782181694212</v>
+        <v>0.1518782181694213</v>
       </c>
       <c r="M50">
+        <v>0.1518707173051727</v>
+      </c>
+      <c r="N50">
         <v>1110.872349972668</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="O50">
+        <v>7.500864248615533E-06</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
-        <v>128.2164550182485</v>
+        <v>128.2164550182484</v>
       </c>
       <c r="B51">
-        <v>332850.3576102394</v>
+        <v>332850.3576102383</v>
       </c>
       <c r="C51">
-        <v>337.8309951023929</v>
+        <v>337.8309951023921</v>
       </c>
       <c r="D51">
-        <v>23828.91315235274</v>
+        <v>23828.91315235275</v>
       </c>
       <c r="E51">
-        <v>7462.357723204848</v>
+        <v>7462.357723204847</v>
       </c>
       <c r="F51">
-        <v>6491.069048661915</v>
+        <v>6491.069048661921</v>
       </c>
       <c r="G51">
-        <v>7.386708640364001</v>
+        <v>7.386708640363975</v>
       </c>
       <c r="H51">
-        <v>22.10110684510434</v>
+        <v>22.10110684510427</v>
       </c>
       <c r="I51">
-        <v>3.709682251377039E-09</v>
+        <v>3.70968225137702E-09</v>
       </c>
       <c r="J51">
-        <v>7.784921799424375E-09</v>
+        <v>7.784921799424355E-09</v>
       </c>
       <c r="K51">
-        <v>8.888110822151002E-05</v>
+        <v>8.888110822151015E-05</v>
       </c>
       <c r="L51">
-        <v>0.1495463674527202</v>
+        <v>0.1495463674527204</v>
       </c>
       <c r="M51">
-        <v>1098.524692373931</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>0.1495385673344991</v>
+      </c>
+      <c r="N51">
+        <v>1098.524692373933</v>
+      </c>
+      <c r="O51">
+        <v>7.800118221335258E-06</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
-        <v>129.6905567626633</v>
+        <v>129.6905567626632</v>
       </c>
       <c r="B52">
-        <v>363219.1543700908</v>
+        <v>363219.1543700889</v>
       </c>
       <c r="C52">
-        <v>366.3538743772381</v>
+        <v>366.3538743772364</v>
       </c>
       <c r="D52">
-        <v>23690.94432401251</v>
+        <v>23690.94432401252</v>
       </c>
       <c r="E52">
-        <v>7412.012917383545</v>
+        <v>7412.012917383552</v>
       </c>
       <c r="F52">
-        <v>6435.901013934172</v>
+        <v>6435.901013934175</v>
       </c>
       <c r="G52">
-        <v>7.315052039268217</v>
+        <v>7.315052039268238</v>
       </c>
       <c r="H52">
-        <v>22.3634333960926</v>
+        <v>22.36343339609263</v>
       </c>
       <c r="I52">
-        <v>3.843624996738478E-09</v>
+        <v>3.843624996738476E-09</v>
       </c>
       <c r="J52">
-        <v>8.083007688885493E-09</v>
+        <v>8.08300768888548E-09</v>
       </c>
       <c r="K52">
-        <v>8.657665157994952E-05</v>
+        <v>8.657665157994964E-05</v>
       </c>
       <c r="L52">
-        <v>0.1472389448054338</v>
+        <v>0.1472389448054339</v>
       </c>
       <c r="M52">
+        <v>0.1472308328116744</v>
+      </c>
+      <c r="N52">
         <v>1086.112197230101</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="O52">
+        <v>8.111993759483156E-06</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
-        <v>131.164658507078</v>
+        <v>131.1646585070779</v>
       </c>
       <c r="B53">
-        <v>395573.2065033712</v>
+        <v>395573.2065033693</v>
       </c>
       <c r="C53">
-        <v>396.6325603973668</v>
+        <v>396.632560397365</v>
       </c>
       <c r="D53">
-        <v>23551.70644916536</v>
+        <v>23551.70644916537</v>
       </c>
       <c r="E53">
-        <v>7360.373841061582</v>
+        <v>7360.373841061577</v>
       </c>
       <c r="F53">
-        <v>6379.840657489977</v>
+        <v>6379.84065748997</v>
       </c>
       <c r="G53">
-        <v>7.244228981259242</v>
+        <v>7.244228981259222</v>
       </c>
       <c r="H53">
-        <v>22.64781383079815</v>
+        <v>22.6478138307981</v>
       </c>
       <c r="I53">
-        <v>3.9857026391961E-09</v>
+        <v>3.985702639196098E-09</v>
       </c>
       <c r="J53">
-        <v>8.387000556110757E-09</v>
+        <v>8.387000556110747E-09</v>
       </c>
       <c r="K53">
-        <v>8.435017750662809E-05</v>
+        <v>8.435017750662817E-05</v>
       </c>
       <c r="L53">
         <v>0.1449639528735811</v>
       </c>
       <c r="M53">
+        <v>0.1449555149009022</v>
+      </c>
+      <c r="N53">
         <v>1073.630721328488</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="O53">
+        <v>8.43797267890187E-06</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
-        <v>132.6387602514928</v>
+        <v>132.6387602514927</v>
       </c>
       <c r="B54">
-        <v>429986.8913805428</v>
+        <v>429986.8913805349</v>
       </c>
       <c r="C54">
-        <v>428.7407509440562</v>
+        <v>428.7407509440479</v>
       </c>
       <c r="D54">
-        <v>23411.10727739377</v>
+        <v>23411.10727739378</v>
       </c>
       <c r="E54">
-        <v>7307.387257666835</v>
+        <v>7307.387257666847</v>
       </c>
       <c r="F54">
-        <v>6322.8475349844</v>
+        <v>6322.847534984411</v>
       </c>
       <c r="G54">
-        <v>7.173950176019988</v>
+        <v>7.173950176019969</v>
       </c>
       <c r="H54">
-        <v>22.95412311018367</v>
+        <v>22.95412311018361</v>
       </c>
       <c r="I54">
-        <v>4.136555416607907E-09</v>
+        <v>4.136555416607897E-09</v>
       </c>
       <c r="J54">
-        <v>8.697059332507853E-09</v>
+        <v>8.697059332507817E-09</v>
       </c>
       <c r="K54">
-        <v>8.219606861339537E-05</v>
+        <v>8.219606861339552E-05</v>
       </c>
       <c r="L54">
-        <v>0.1427265935305464</v>
+        <v>0.1427265935305467</v>
       </c>
       <c r="M54">
-        <v>1061.076309156523</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>0.1427178138014771</v>
+      </c>
+      <c r="N54">
+        <v>1061.076309156524</v>
+      </c>
+      <c r="O54">
+        <v>8.779729069649369E-06</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
-        <v>134.1128619959075</v>
+        <v>134.1128619959074</v>
       </c>
       <c r="B55">
-        <v>466534.8417417769</v>
+        <v>466534.841741776</v>
       </c>
       <c r="C55">
-        <v>462.7550893038036</v>
+        <v>462.7550893038032</v>
       </c>
       <c r="D55">
-        <v>23269.05438432205</v>
+        <v>23269.05438432206</v>
       </c>
       <c r="E55">
         <v>7252.999690207566</v>
       </c>
       <c r="F55">
-        <v>6264.88134067647</v>
+        <v>6264.881340676471</v>
       </c>
       <c r="G55">
-        <v>7.103981403192947</v>
+        <v>7.103981403192977</v>
       </c>
       <c r="H55">
-        <v>23.28239459463865</v>
+        <v>23.28239459463867</v>
       </c>
       <c r="I55">
-        <v>4.296887317109487E-09</v>
+        <v>4.296887317109478E-09</v>
       </c>
       <c r="J55">
-        <v>9.013379050875091E-09</v>
+        <v>9.01337905087507E-09</v>
       </c>
       <c r="K55">
-        <v>8.01093463623154E-05</v>
+        <v>8.010934636231553E-05</v>
       </c>
       <c r="L55">
-        <v>0.1405295835347957</v>
+        <v>0.1405295835347959</v>
       </c>
       <c r="M55">
-        <v>1048.445215168841</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>0.1405204443941008</v>
+      </c>
+      <c r="N55">
+        <v>1048.445215168842</v>
+      </c>
+      <c r="O55">
+        <v>9.139140695076886E-06</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
-        <v>135.5869637403223</v>
+        <v>135.5869637403222</v>
       </c>
       <c r="B56">
-        <v>505291.9077447674</v>
+        <v>505291.9077447607</v>
       </c>
       <c r="C56">
-        <v>498.7554713924189</v>
+        <v>498.7554713924121</v>
       </c>
       <c r="D56">
-        <v>23125.45481935926</v>
+        <v>23125.45481935927</v>
       </c>
       <c r="E56">
-        <v>7197.157075360276</v>
+        <v>7197.157075360278</v>
       </c>
       <c r="F56">
         <v>6205.901613465598</v>
       </c>
       <c r="G56">
-        <v>7.034135406387279</v>
+        <v>7.034135406387324</v>
       </c>
       <c r="H56">
-        <v>23.6328146887271</v>
+        <v>23.63281468872705</v>
       </c>
       <c r="I56">
-        <v>4.467473747217562E-09</v>
+        <v>4.467473747217546E-09</v>
       </c>
       <c r="J56">
-        <v>9.336191185056032E-09</v>
+        <v>9.336191185056003E-09</v>
       </c>
       <c r="K56">
-        <v>7.808559252663498E-05</v>
+        <v>7.808559252663511E-05</v>
       </c>
       <c r="L56">
-        <v>0.1383735626533063</v>
+        <v>0.1383735626533064</v>
       </c>
       <c r="M56">
+        <v>0.1383640443525105</v>
+      </c>
+      <c r="N56">
         <v>1035.733919134648</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="O56">
+        <v>9.518300795916206E-06</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
-        <v>137.061065484737</v>
+        <v>137.0610654847369</v>
       </c>
       <c r="B57">
-        <v>546333.126158669</v>
+        <v>546333.1261586671</v>
       </c>
       <c r="C57">
-        <v>536.8253928959194</v>
+        <v>536.825392895918</v>
       </c>
       <c r="D57">
-        <v>22980.21475631732</v>
+        <v>22980.21475631734</v>
       </c>
       <c r="E57">
-        <v>7139.804412576078</v>
+        <v>7139.804412576081</v>
       </c>
       <c r="F57">
-        <v>6145.867442984437</v>
+        <v>6145.86744298444</v>
       </c>
       <c r="G57">
-        <v>6.964265023431372</v>
+        <v>6.964265023431366</v>
       </c>
       <c r="H57">
-        <v>24.00571996776196</v>
+        <v>24.00571996776194</v>
       </c>
       <c r="I57">
-        <v>4.649170297649628E-09</v>
+        <v>4.649170297649612E-09</v>
       </c>
       <c r="J57">
-        <v>9.665763996690835E-09</v>
+        <v>9.665763996690804E-09</v>
       </c>
       <c r="K57">
-        <v>7.612087833673068E-05</v>
+        <v>7.612087833673086E-05</v>
       </c>
       <c r="L57">
-        <v>0.1362575324338785</v>
+        <v>0.1362575324338787</v>
       </c>
       <c r="M57">
-        <v>1022.939135710836</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>0.1362476129035353</v>
+      </c>
+      <c r="N57">
+        <v>1022.939135710838</v>
+      </c>
+      <c r="O57">
+        <v>9.919530343384227E-06</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58">
-        <v>138.5351672291518</v>
+        <v>138.5351672291517</v>
       </c>
       <c r="B58">
-        <v>589733.697213982</v>
+        <v>589733.6972139807</v>
       </c>
       <c r="C58">
-        <v>577.0523419329846</v>
+        <v>577.0523419329839</v>
       </c>
       <c r="D58">
-        <v>22833.23914419959</v>
+        <v>22833.2391441996</v>
       </c>
       <c r="E58">
-        <v>7080.885403919754</v>
+        <v>7080.885403919757</v>
       </c>
       <c r="F58">
         <v>6084.737171752648</v>
       </c>
       <c r="G58">
-        <v>6.894257387127563</v>
+        <v>6.894257387127582</v>
       </c>
       <c r="H58">
-        <v>24.4015967216223</v>
+        <v>24.40159672162232</v>
       </c>
       <c r="I58">
-        <v>4.842922791948297E-09</v>
+        <v>4.842922791948292E-09</v>
       </c>
       <c r="J58">
-        <v>1.000240292362209E-08</v>
+        <v>1.000240292362207E-08</v>
       </c>
       <c r="K58">
-        <v>7.421170069631152E-05</v>
+        <v>7.421170069631169E-05</v>
       </c>
       <c r="L58">
-        <v>0.1341792791453364</v>
+        <v>0.1341792791453366</v>
       </c>
       <c r="M58">
+        <v>0.1341689337545568</v>
+      </c>
+      <c r="N58">
         <v>1010.057819191604</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="O58">
+        <v>1.034539077975492E-05</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59">
-        <v>140.0092689735665</v>
+        <v>140.0092689735664</v>
       </c>
       <c r="B59">
-        <v>635568.9696685034</v>
+        <v>635568.9696685026</v>
       </c>
       <c r="C59">
-        <v>619.5282436047611</v>
+        <v>619.5282436047609</v>
       </c>
       <c r="D59">
-        <v>22684.4313553665</v>
+        <v>22684.43135536651</v>
       </c>
       <c r="E59">
-        <v>7020.342080411687</v>
+        <v>7020.342080411695</v>
       </c>
       <c r="F59">
-        <v>6022.468089446376</v>
+        <v>6022.468089446385</v>
       </c>
       <c r="G59">
-        <v>6.824029050049607</v>
+        <v>6.824029050049653</v>
       </c>
       <c r="H59">
-        <v>24.8210829043945</v>
+        <v>24.82108290439453</v>
       </c>
       <c r="I59">
-        <v>5.049778839331306E-09</v>
+        <v>5.049778839331292E-09</v>
       </c>
       <c r="J59">
-        <v>1.034645104130702E-08</v>
+        <v>1.034645104130699E-08</v>
       </c>
       <c r="K59">
-        <v>7.235492494560903E-05</v>
+        <v>7.235492494560916E-05</v>
       </c>
       <c r="L59">
-        <v>0.1321357514987281</v>
+        <v>0.1321357514987282</v>
       </c>
       <c r="M59">
-        <v>997.0871642097103</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>0.1321249528014484</v>
+      </c>
+      <c r="N59">
+        <v>997.087164209711</v>
+      </c>
+      <c r="O59">
+        <v>1.07986972798196E-05</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
-        <v>141.4833707179813</v>
+        <v>141.4833707179811</v>
       </c>
       <c r="B60">
-        <v>683914.4347062265</v>
+        <v>683914.4347062211</v>
       </c>
       <c r="C60">
-        <v>664.3499637819683</v>
+        <v>664.3499637819631</v>
       </c>
       <c r="D60">
-        <v>22533.69282814182</v>
+        <v>22533.69282814183</v>
       </c>
       <c r="E60">
-        <v>6958.11441064885</v>
+        <v>6958.11441064886</v>
       </c>
       <c r="F60">
-        <v>5959.016115333012</v>
+        <v>5959.016115333023</v>
       </c>
       <c r="G60">
-        <v>6.753521904639545</v>
+        <v>6.753521904639516</v>
       </c>
       <c r="H60">
-        <v>25.26497253575144</v>
+        <v>25.26497253575135</v>
       </c>
       <c r="I60">
-        <v>5.270901157765512E-09</v>
+        <v>5.270901157765488E-09</v>
       </c>
       <c r="J60">
-        <v>1.069828962647139E-08</v>
+        <v>1.069828962647135E-08</v>
       </c>
       <c r="K60">
-        <v>7.054773371535388E-05</v>
+        <v>7.054773371535406E-05</v>
       </c>
       <c r="L60">
-        <v>0.1301233788057967</v>
+        <v>0.130123378805797</v>
       </c>
       <c r="M60">
-        <v>984.0246030072199</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>0.1301120962732355</v>
+      </c>
+      <c r="N60">
+        <v>984.0246030072215</v>
+      </c>
+      <c r="O60">
+        <v>1.128253256146453E-05</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61">
-        <v>142.957472462396</v>
+        <v>142.9574724623959</v>
       </c>
       <c r="B61">
-        <v>734845.7293459788</v>
+        <v>734845.729345978</v>
       </c>
       <c r="C61">
-        <v>711.6198806010905</v>
+        <v>711.61988060109</v>
       </c>
       <c r="D61">
         <v>22380.92270071296</v>
       </c>
       <c r="E61">
-        <v>6894.139887440052</v>
+        <v>6894.139887440046</v>
       </c>
       <c r="F61">
-        <v>5894.335464859962</v>
+        <v>5894.335464859952</v>
       </c>
       <c r="G61">
-        <v>6.682699785992025</v>
+        <v>6.682699785992013</v>
       </c>
       <c r="H61">
-        <v>25.73422266321005</v>
+        <v>25.73422266321007</v>
       </c>
       <c r="I61">
-        <v>5.507582988222315E-09</v>
+        <v>5.507582988222325E-09</v>
       </c>
       <c r="J61">
         <v>1.105833885125893E-08</v>
@@ -3004,1647 +3370,1893 @@
         <v>0.1281383264753709</v>
       </c>
       <c r="M61">
-        <v>970.86779975237</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>0.1281265262141024</v>
+      </c>
+      <c r="N61">
+        <v>970.8677997523695</v>
+      </c>
+      <c r="O61">
+        <v>1.18002612684671E-05</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62">
-        <v>144.4315742068108</v>
+        <v>144.4315742068107</v>
       </c>
       <c r="B62">
-        <v>788438.650099683</v>
+        <v>788438.6500996806</v>
       </c>
       <c r="C62">
-        <v>761.4465334219885</v>
+        <v>761.4465334219868</v>
       </c>
       <c r="D62">
-        <v>22226.01743289328</v>
+        <v>22226.01743289329</v>
       </c>
       <c r="E62">
-        <v>6828.353088102063</v>
+        <v>6828.353088102061</v>
       </c>
       <c r="F62">
         <v>5828.378296269322</v>
       </c>
       <c r="G62">
-        <v>6.611545659324693</v>
+        <v>6.611545659324695</v>
       </c>
       <c r="H62">
-        <v>26.22996306579426</v>
+        <v>26.22996306579414</v>
       </c>
       <c r="I62">
-        <v>5.761265989163399E-09</v>
+        <v>5.761265989163372E-09</v>
       </c>
       <c r="J62">
-        <v>1.142705863629664E-08</v>
+        <v>1.142705863629662E-08</v>
       </c>
       <c r="K62">
-        <v>6.707215432113886E-05</v>
+        <v>6.707215432113897E-05</v>
       </c>
       <c r="L62">
-        <v>0.1261766929709366</v>
+        <v>0.1261766929709368</v>
       </c>
       <c r="M62">
-        <v>957.6146422522254</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>0.1261643374259936</v>
+      </c>
+      <c r="N62">
+        <v>957.6146422522265</v>
+      </c>
+      <c r="O62">
+        <v>1.235554494319894E-05</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63">
-        <v>145.9056759512255</v>
+        <v>145.9056759512254</v>
       </c>
       <c r="B63">
-        <v>844769.1776837495</v>
+        <v>844769.1776837489</v>
       </c>
       <c r="C63">
-        <v>813.9453604595215</v>
+        <v>813.9453604595218</v>
       </c>
       <c r="D63">
-        <v>22068.87041193417</v>
+        <v>22068.87041193419</v>
       </c>
       <c r="E63">
-        <v>6760.685203925896</v>
+        <v>6760.685203925897</v>
       </c>
       <c r="F63">
-        <v>5761.09433293362</v>
+        <v>5761.094332933621</v>
       </c>
       <c r="G63">
-        <v>6.540059307260579</v>
+        <v>6.540059307260578</v>
       </c>
       <c r="H63">
-        <v>26.7535089620077</v>
+        <v>26.75350896200768</v>
       </c>
       <c r="I63">
-        <v>6.033561085109008E-09</v>
+        <v>6.033561085108976E-09</v>
       </c>
       <c r="J63">
-        <v>1.180494969243679E-08</v>
+        <v>1.180494969243675E-08</v>
       </c>
       <c r="K63">
-        <v>6.539933489405909E-05</v>
+        <v>6.539933489405925E-05</v>
       </c>
       <c r="L63">
-        <v>0.1242346561780325</v>
+        <v>0.1242346561780327</v>
       </c>
       <c r="M63">
-        <v>944.2632312959524</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>0.1242217038204317</v>
+      </c>
+      <c r="N63">
+        <v>944.2632312959545</v>
+      </c>
+      <c r="O63">
+        <v>1.295235760103704E-05</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64">
-        <v>147.3797776956403</v>
+        <v>147.3797776956402</v>
       </c>
       <c r="B64">
-        <v>903913.5136491802</v>
+        <v>903913.5136491783</v>
       </c>
       <c r="C64">
-        <v>869.2395379663596</v>
+        <v>869.2395379663583</v>
       </c>
       <c r="D64">
-        <v>21909.37153808159</v>
+        <v>21909.37153808161</v>
       </c>
       <c r="E64">
-        <v>6691.063534138075</v>
+        <v>6691.063534138076</v>
       </c>
       <c r="F64">
-        <v>5692.43045687028</v>
+        <v>5692.430456870281</v>
       </c>
       <c r="G64">
-        <v>6.468255443811869</v>
+        <v>6.46825544381188</v>
       </c>
       <c r="H64">
-        <v>27.30637708210832</v>
+        <v>27.30637708210826</v>
       </c>
       <c r="I64">
-        <v>6.326272849331932E-09</v>
+        <v>6.326272849331903E-09</v>
       </c>
       <c r="J64">
-        <v>1.219255478348775E-08</v>
+        <v>1.219255478348772E-08</v>
       </c>
       <c r="K64">
-        <v>6.376717168549259E-05</v>
+        <v>6.376717168549273E-05</v>
       </c>
       <c r="L64">
-        <v>0.1223085784856321</v>
+        <v>0.1223085784856322</v>
       </c>
       <c r="M64">
-        <v>930.8118677586161</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>0.1222949834837204</v>
+      </c>
+      <c r="N64">
+        <v>930.8118677586173</v>
+      </c>
+      <c r="O64">
+        <v>1.359500191186102E-05</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65">
-        <v>148.853879440055</v>
+        <v>148.8538794400549</v>
       </c>
       <c r="B65">
-        <v>965948.1298528234</v>
+        <v>965948.1298528092</v>
       </c>
       <c r="C65">
-        <v>927.4609357387368</v>
+        <v>927.4609357387212</v>
       </c>
       <c r="D65">
-        <v>21747.40678493818</v>
+        <v>21747.4067849382</v>
       </c>
       <c r="E65">
-        <v>6619.410939448662</v>
+        <v>6619.410939448668</v>
       </c>
       <c r="F65">
-        <v>5622.330268589515</v>
+        <v>5622.330268589518</v>
       </c>
       <c r="G65">
-        <v>6.396162192438271</v>
+        <v>6.396162192438282</v>
       </c>
       <c r="H65">
-        <v>27.89030558119455</v>
+        <v>27.89030558119453</v>
       </c>
       <c r="I65">
-        <v>6.641428134443224E-09</v>
+        <v>6.641428134443198E-09</v>
       </c>
       <c r="J65">
-        <v>1.259046024609058E-08</v>
+        <v>1.259046024609055E-08</v>
       </c>
       <c r="K65">
-        <v>6.217385280683748E-05</v>
+        <v>6.217385280683763E-05</v>
       </c>
       <c r="L65">
-        <v>0.1203950796681373</v>
+        <v>0.1203950796681374</v>
       </c>
       <c r="M65">
-        <v>917.259037498828</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>0.1203807915421505</v>
+      </c>
+      <c r="N65">
+        <v>917.2590374988291</v>
+      </c>
+      <c r="O65">
+        <v>1.428812598686153E-05</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66">
-        <v>150.3279811844698</v>
+        <v>150.3279811844696</v>
       </c>
       <c r="B66">
-        <v>1030949.831739315</v>
+        <v>1030949.831739311</v>
       </c>
       <c r="C66">
-        <v>988.7512058678341</v>
+        <v>988.7512058678307</v>
       </c>
       <c r="D66">
-        <v>21582.85772888414</v>
+        <v>21582.85772888415</v>
       </c>
       <c r="E66">
-        <v>6545.645250002654</v>
+        <v>6545.645250002658</v>
       </c>
       <c r="F66">
-        <v>5550.733608062001</v>
+        <v>5550.733608062004</v>
       </c>
       <c r="G66">
-        <v>6.323819874871965</v>
+        <v>6.323819874871992</v>
       </c>
       <c r="H66">
-        <v>28.50727841177408</v>
+        <v>28.50727841177411</v>
       </c>
       <c r="I66">
-        <v>6.981309834032891E-09</v>
+        <v>6.981309834032877E-09</v>
       </c>
       <c r="J66">
-        <v>1.299929780817329E-08</v>
+        <v>1.299929780817327E-08</v>
       </c>
       <c r="K66">
-        <v>6.061768365113356E-05</v>
+        <v>6.061768365113365E-05</v>
       </c>
       <c r="L66">
-        <v>0.1184910855788525</v>
+        <v>0.1184910855788526</v>
       </c>
       <c r="M66">
-        <v>903.603393993496</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>0.1184760488380916</v>
+      </c>
+      <c r="N66">
+        <v>903.6033939934963</v>
+      </c>
+      <c r="O66">
+        <v>1.503674076102442E-05</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67">
-        <v>151.8020829288845</v>
+        <v>151.8020829288844</v>
       </c>
       <c r="B67">
-        <v>1098995.836434427</v>
+        <v>1098995.83643442</v>
       </c>
       <c r="C67">
-        <v>1053.263024091784</v>
+        <v>1053.263024091778</v>
       </c>
       <c r="D67">
-        <v>21415.60104078499</v>
+        <v>21415.60104078501</v>
       </c>
       <c r="E67">
-        <v>6469.678622238045</v>
+        <v>6469.678622238043</v>
       </c>
       <c r="F67">
-        <v>5477.576031156784</v>
+        <v>5477.576031156786</v>
       </c>
       <c r="G67">
-        <v>6.2512800656705</v>
+        <v>6.251280065670514</v>
       </c>
       <c r="H67">
-        <v>29.15955495035984</v>
+        <v>29.15955495035972</v>
       </c>
       <c r="I67">
-        <v>7.348496874437843E-09</v>
+        <v>7.348496874437791E-09</v>
       </c>
       <c r="J67">
-        <v>1.34197467543307E-08</v>
+        <v>1.341974675433066E-08</v>
       </c>
       <c r="K67">
-        <v>5.909706820116292E-05</v>
+        <v>5.909706820116304E-05</v>
       </c>
       <c r="L67">
-        <v>0.1165938592317542</v>
+        <v>0.1165938592317544</v>
       </c>
       <c r="M67">
-        <v>889.8437385681902</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>0.1165780129938013</v>
+      </c>
+      <c r="N67">
+        <v>889.8437385681918</v>
+      </c>
+      <c r="O67">
+        <v>1.584623795315109E-05</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68">
-        <v>153.2761846732993</v>
+        <v>153.2761846732992</v>
       </c>
       <c r="B68">
-        <v>1170163.866657154</v>
+        <v>1170163.866657153</v>
       </c>
       <c r="C68">
         <v>1121.161505835988</v>
       </c>
       <c r="D68">
-        <v>21245.50793191363</v>
+        <v>21245.50793191365</v>
       </c>
       <c r="E68">
-        <v>6391.416838818572</v>
+        <v>6391.41683881857</v>
       </c>
       <c r="F68">
-        <v>5402.788235400805</v>
+        <v>5402.788235400809</v>
       </c>
       <c r="G68">
-        <v>6.178604874786117</v>
+        <v>6.178604874786124</v>
       </c>
       <c r="H68">
-        <v>29.84970589297316</v>
+        <v>29.84970589297302</v>
       </c>
       <c r="I68">
-        <v>7.745911812695876E-09</v>
+        <v>7.745911812695808E-09</v>
       </c>
       <c r="J68">
-        <v>1.385253649534138E-08</v>
+        <v>1.385253649534133E-08</v>
       </c>
       <c r="K68">
-        <v>5.761049364221576E-05</v>
+        <v>5.761049364221592E-05</v>
       </c>
       <c r="L68">
-        <v>0.1147010193677002</v>
+        <v>0.1147010193677004</v>
       </c>
       <c r="M68">
-        <v>875.9789980010067</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>0.1146842969591243</v>
+      </c>
+      <c r="N68">
+        <v>875.9789980010092</v>
+      </c>
+      <c r="O68">
+        <v>1.672240857614462E-05</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69">
-        <v>154.750286417714</v>
+        <v>154.7502864177139</v>
       </c>
       <c r="B69">
-        <v>1244532.261427675</v>
+        <v>1244532.26142767</v>
       </c>
       <c r="C69">
-        <v>1192.625822069289</v>
+        <v>1192.625822069284</v>
       </c>
       <c r="D69">
-        <v>21072.44354436668</v>
+        <v>21072.4435443667</v>
       </c>
       <c r="E69">
-        <v>6310.75854547627</v>
+        <v>6310.758545476286</v>
       </c>
       <c r="F69">
-        <v>5326.295428359989</v>
+        <v>5326.295428360007</v>
       </c>
       <c r="G69">
-        <v>6.105866426956368</v>
+        <v>6.105866426956388</v>
       </c>
       <c r="H69">
-        <v>30.58065671349414</v>
+        <v>30.58065671349402</v>
       </c>
       <c r="I69">
-        <v>8.17687777449463E-09</v>
+        <v>8.176877774494576E-09</v>
       </c>
       <c r="J69">
-        <v>1.429844961027027E-08</v>
+        <v>1.429844961027023E-08</v>
       </c>
       <c r="K69">
-        <v>5.615651794557937E-05</v>
+        <v>5.61565179455795E-05</v>
       </c>
       <c r="L69">
-        <v>0.1128105502448626</v>
+        <v>0.1128105502448628</v>
       </c>
       <c r="M69">
-        <v>862.0081992003406</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>0.1127928787829018</v>
+      </c>
+      <c r="N69">
+        <v>862.0081992003419</v>
+      </c>
+      <c r="O69">
+        <v>1.767146196092755E-05</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
-        <v>156.2243881621288</v>
+        <v>156.2243881621287</v>
       </c>
       <c r="B70">
-        <v>1322180.104465531</v>
+        <v>1322180.104465513</v>
       </c>
       <c r="C70">
-        <v>1267.851043436686</v>
+        <v>1267.851043436666</v>
       </c>
       <c r="D70">
-        <v>20896.26627416445</v>
+        <v>20896.26627416447</v>
       </c>
       <c r="E70">
-        <v>6227.594418305674</v>
+        <v>6227.594418305682</v>
       </c>
       <c r="F70">
-        <v>5248.016631355899</v>
+        <v>5248.016631355905</v>
       </c>
       <c r="G70">
-        <v>6.033146512502768</v>
+        <v>6.03314651250279</v>
       </c>
       <c r="H70">
-        <v>31.35574033579912</v>
+        <v>31.35574033579903</v>
       </c>
       <c r="I70">
-        <v>8.645186931291431E-09</v>
+        <v>8.645186931291371E-09</v>
       </c>
       <c r="J70">
-        <v>1.475832544379471E-08</v>
+        <v>1.475832544379465E-08</v>
       </c>
       <c r="K70">
-        <v>5.473376008415652E-05</v>
+        <v>5.47337600841567E-05</v>
       </c>
       <c r="L70">
-        <v>0.1109208052378451</v>
+        <v>0.1109208052378454</v>
       </c>
       <c r="M70">
-        <v>847.9304405823545</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>0.1109021051925975</v>
+      </c>
+      <c r="N70">
+        <v>847.9304405823561</v>
+      </c>
+      <c r="O70">
+        <v>1.870004524795481E-05</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71">
-        <v>157.6984899065436</v>
+        <v>157.6984899065434</v>
       </c>
       <c r="B71">
-        <v>1403187.371013113</v>
+        <v>1403187.371013118</v>
       </c>
       <c r="C71">
-        <v>1347.050244701923</v>
+        <v>1347.050244701932</v>
       </c>
       <c r="D71">
-        <v>20716.8270125653</v>
+        <v>20716.82701256533</v>
       </c>
       <c r="E71">
-        <v>6141.806254862877</v>
+        <v>6141.806254862876</v>
       </c>
       <c r="F71">
-        <v>5167.863910650446</v>
+        <v>5167.863910650448</v>
       </c>
       <c r="G71">
-        <v>5.960536389324633</v>
+        <v>5.960536389324637</v>
       </c>
       <c r="H71">
-        <v>32.17876113170073</v>
+        <v>32.17876113170066</v>
       </c>
       <c r="I71">
-        <v>9.155183325691094E-09</v>
+        <v>9.155183325691042E-09</v>
       </c>
       <c r="J71">
-        <v>1.523306435931433E-08</v>
+        <v>1.523306435931427E-08</v>
       </c>
       <c r="K71">
-        <v>5.334089253655963E-05</v>
+        <v>5.334089253655978E-05</v>
       </c>
       <c r="L71">
-        <v>0.1090305058955416</v>
+        <v>0.1090305058955418</v>
       </c>
       <c r="M71">
-        <v>833.7448597010971</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>0.1090106906322502</v>
+      </c>
+      <c r="N71">
+        <v>833.7448597010986</v>
+      </c>
+      <c r="O71">
+        <v>1.981526329160045E-05</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72">
-        <v>159.1725916509583</v>
+        <v>159.1725916509582</v>
       </c>
       <c r="B72">
-        <v>1487635.093552094</v>
+        <v>1487635.093552093</v>
       </c>
       <c r="C72">
-        <v>1430.456905232064</v>
+        <v>1430.456905232065</v>
       </c>
       <c r="D72">
-        <v>20533.96828773293</v>
+        <v>20533.96828773295</v>
       </c>
       <c r="E72">
-        <v>6053.265982430666</v>
+        <v>6053.265982430665</v>
       </c>
       <c r="F72">
-        <v>5085.741527712798</v>
+        <v>5085.741527712797</v>
       </c>
       <c r="G72">
-        <v>5.888136720589123</v>
+        <v>5.888136720589126</v>
       </c>
       <c r="H72">
-        <v>33.05407295769605</v>
+        <v>33.05407295769601</v>
       </c>
       <c r="I72">
-        <v>9.71186365987629E-09</v>
+        <v>9.711863659876262E-09</v>
       </c>
       <c r="J72">
-        <v>1.572363277110845E-08</v>
+        <v>1.57236327711084E-08</v>
       </c>
       <c r="K72">
-        <v>5.197663573068446E-05</v>
+        <v>5.197663573068456E-05</v>
       </c>
       <c r="L72">
-        <v>0.1071387373836074</v>
+        <v>0.1071387373836076</v>
       </c>
       <c r="M72">
-        <v>819.4505966126234</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>0.1071177126846924</v>
+      </c>
+      <c r="N72">
+        <v>819.4505966126238</v>
+      </c>
+      <c r="O72">
+        <v>2.102469891523281E-05</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73">
-        <v>160.6466933953731</v>
+        <v>160.6466933953729</v>
       </c>
       <c r="B73">
-        <v>1575605.546461065</v>
+        <v>1575605.546461035</v>
       </c>
       <c r="C73">
-        <v>1518.327644872692</v>
+        <v>1518.327644872655</v>
       </c>
       <c r="D73">
-        <v>20347.52328455107</v>
+        <v>20347.52328455109</v>
       </c>
       <c r="E73">
-        <v>5961.834577148561</v>
+        <v>5961.834577148594</v>
       </c>
       <c r="F73">
-        <v>5001.544999820107</v>
+        <v>5001.54499982013</v>
       </c>
       <c r="G73">
-        <v>5.816057636949323</v>
+        <v>5.816057636949338</v>
       </c>
       <c r="H73">
-        <v>33.98667473406064</v>
+        <v>33.98667473406057</v>
       </c>
       <c r="I73">
-        <v>1.03210007351811E-08</v>
+        <v>1.032100073518106E-08</v>
       </c>
       <c r="J73">
-        <v>1.623106910768418E-08</v>
+        <v>1.623106910768413E-08</v>
       </c>
       <c r="K73">
-        <v>5.063975407206786E-05</v>
+        <v>5.063975407206797E-05</v>
       </c>
       <c r="L73">
-        <v>0.1052449406990021</v>
+        <v>0.1052449406990023</v>
       </c>
       <c r="M73">
-        <v>805.0467523837275</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>0.1052226042655527</v>
+      </c>
+      <c r="N73">
+        <v>805.0467523837281</v>
+      </c>
+      <c r="O73">
+        <v>2.233643344962776E-05</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74">
-        <v>162.1207951397878</v>
+        <v>162.1207951397877</v>
       </c>
       <c r="B74">
-        <v>1667182.449029006</v>
+        <v>1667182.449029</v>
       </c>
       <c r="C74">
-        <v>1610.945337740455</v>
+        <v>1610.945337740449</v>
       </c>
       <c r="D74">
-        <v>20157.31471478514</v>
+        <v>20157.31471478515</v>
       </c>
       <c r="E74">
-        <v>5867.360888569691</v>
+        <v>5867.360888569694</v>
       </c>
       <c r="F74">
-        <v>4915.160062180886</v>
+        <v>4915.160062180888</v>
       </c>
       <c r="G74">
-        <v>5.744418916244476</v>
+        <v>5.744418916244464</v>
       </c>
       <c r="H74">
-        <v>34.98232811964404</v>
+        <v>34.98232811964403</v>
       </c>
       <c r="I74">
-        <v>1.098929567346962E-08</v>
+        <v>1.09892956734696E-08</v>
       </c>
       <c r="J74">
-        <v>1.675649089541623E-08</v>
+        <v>1.675649089541618E-08</v>
       </c>
       <c r="K74">
-        <v>4.932905319594338E-05</v>
+        <v>4.932905319594345E-05</v>
       </c>
       <c r="L74">
-        <v>0.1033489016627609</v>
+        <v>0.103348901662761</v>
       </c>
       <c r="M74">
-        <v>790.5323420831444</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>0.1033251425952749</v>
+      </c>
+      <c r="N74">
+        <v>790.5323420831452</v>
+      </c>
+      <c r="O74">
+        <v>2.375906748614333E-05</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75">
-        <v>163.5948968842025</v>
+        <v>163.5948968842024</v>
       </c>
       <c r="B75">
-        <v>1762451.18530747</v>
+        <v>1762451.185307493</v>
       </c>
       <c r="C75">
-        <v>1708.622648630797</v>
+        <v>1708.622648630832</v>
       </c>
       <c r="D75">
-        <v>19963.15350254233</v>
+        <v>19963.15350254235</v>
       </c>
       <c r="E75">
-        <v>5769.680365851616</v>
+        <v>5769.680365851598</v>
       </c>
       <c r="F75">
-        <v>4826.461523209071</v>
+        <v>4826.46152320906</v>
       </c>
       <c r="G75">
-        <v>5.673350277643649</v>
+        <v>5.673350277643674</v>
       </c>
       <c r="H75">
-        <v>36.04770324352387</v>
+        <v>36.04770324352386</v>
       </c>
       <c r="I75">
-        <v>1.172456700833282E-08</v>
+        <v>1.172456700833276E-08</v>
       </c>
       <c r="J75">
-        <v>1.730110319918229E-08</v>
+        <v>1.730110319918223E-08</v>
       </c>
       <c r="K75">
-        <v>4.804337807430975E-05</v>
+        <v>4.804337807430987E-05</v>
       </c>
       <c r="L75">
-        <v>0.1014507364451579</v>
+        <v>0.101450736445158</v>
       </c>
       <c r="M75">
-        <v>775.9062415163907</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>0.1014254347033783</v>
+      </c>
+      <c r="N75">
+        <v>775.9062415163918</v>
+      </c>
+      <c r="O75">
+        <v>2.53017417797988E-05</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76">
-        <v>165.0689986286173</v>
+        <v>165.0689986286172</v>
       </c>
       <c r="B76">
-        <v>1861499.037940516</v>
+        <v>1861499.037940474</v>
       </c>
       <c r="C76">
-        <v>1811.706037027086</v>
+        <v>1811.706037027031</v>
       </c>
       <c r="D76">
-        <v>19764.83724052306</v>
+        <v>19764.83724052309</v>
       </c>
       <c r="E76">
-        <v>5668.613684558969</v>
+        <v>5668.61368455902</v>
       </c>
       <c r="F76">
-        <v>4735.312005804984</v>
+        <v>4735.312005805026</v>
       </c>
       <c r="G76">
-        <v>5.602991791315844</v>
+        <v>5.60299179131583</v>
       </c>
       <c r="H76">
-        <v>37.19056036243209</v>
+        <v>37.19056036243187</v>
       </c>
       <c r="I76">
-        <v>1.253598741707243E-08</v>
+        <v>1.25359874170723E-08</v>
       </c>
       <c r="J76">
-        <v>1.786620871848719E-08</v>
+        <v>1.78662087184871E-08</v>
       </c>
       <c r="K76">
-        <v>4.678161159967739E-05</v>
+        <v>4.678161159967755E-05</v>
       </c>
       <c r="L76">
-        <v>0.09955087322941217</v>
+        <v>0.09955087322941242</v>
       </c>
       <c r="M76">
-        <v>761.1671268781229</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>0.09952389907116298</v>
+      </c>
+      <c r="N76">
+        <v>761.1671268781253</v>
+      </c>
+      <c r="O76">
+        <v>2.697415824943751E-05</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77">
-        <v>166.543100373032</v>
+        <v>166.5431003730319</v>
       </c>
       <c r="B77">
-        <v>1964415.431197244</v>
+        <v>1964415.43119727</v>
       </c>
       <c r="C77">
-        <v>1920.580270796438</v>
+        <v>1920.580270796481</v>
       </c>
       <c r="D77">
-        <v>19562.148360107</v>
+        <v>19562.14836010702</v>
       </c>
       <c r="E77">
-        <v>5563.965277375055</v>
+        <v>5563.965277375044</v>
       </c>
       <c r="F77">
-        <v>4641.560569898851</v>
+        <v>4641.56056989885</v>
       </c>
       <c r="G77">
-        <v>5.533494409127658</v>
+        <v>5.53349440912768</v>
       </c>
       <c r="H77">
-        <v>38.41997792702097</v>
+        <v>38.41997792702077</v>
       </c>
       <c r="I77">
-        <v>1.343438258228448E-08</v>
+        <v>1.343438258228432E-08</v>
       </c>
       <c r="J77">
-        <v>1.845321991847384E-08</v>
+        <v>1.845321991847375E-08</v>
       </c>
       <c r="K77">
-        <v>4.554267325425837E-05</v>
+        <v>4.554267325425857E-05</v>
       </c>
       <c r="L77">
-        <v>0.09765002955338294</v>
+        <v>0.09765002955338324</v>
       </c>
       <c r="M77">
-        <v>746.3134063885919</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>0.09762124295233837</v>
+      </c>
+      <c r="N77">
+        <v>746.3134063885943</v>
+      </c>
+      <c r="O77">
+        <v>2.878660104486555E-05</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78">
-        <v>168.0172021174468</v>
+        <v>168.0172021174467</v>
       </c>
       <c r="B78">
-        <v>2071292.175748476</v>
+        <v>2071292.175748455</v>
       </c>
       <c r="C78">
-        <v>2035.673483716776</v>
+        <v>2035.673483716749</v>
       </c>
       <c r="D78">
-        <v>19354.85194177173</v>
+        <v>19354.85194177174</v>
       </c>
       <c r="E78">
-        <v>5455.521778353394</v>
+        <v>5455.521778353409</v>
       </c>
       <c r="F78">
-        <v>4545.041215556304</v>
+        <v>4545.041215556314</v>
       </c>
       <c r="G78">
-        <v>5.465020626916147</v>
+        <v>5.465020626916154</v>
       </c>
       <c r="H78">
-        <v>39.74664116548076</v>
+        <v>39.74664116548069</v>
       </c>
       <c r="I78">
-        <v>1.443261188465973E-08</v>
+        <v>1.443261188465968E-08</v>
       </c>
       <c r="J78">
-        <v>1.906367368218121E-08</v>
+        <v>1.906367368218116E-08</v>
       </c>
       <c r="K78">
-        <v>4.432551745549151E-05</v>
+        <v>4.432551745549159E-05</v>
       </c>
       <c r="L78">
-        <v>0.09574918486232342</v>
+        <v>0.09574918486232352</v>
       </c>
       <c r="M78">
-        <v>731.3431428363102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>0.09571843490463461</v>
+      </c>
+      <c r="N78">
+        <v>731.3431428363108</v>
+      </c>
+      <c r="O78">
+        <v>3.074995768890944E-05</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79">
-        <v>169.4913038618616</v>
+        <v>169.4913038618614</v>
       </c>
       <c r="B79">
-        <v>2182223.703998076</v>
+        <v>2182223.703998041</v>
       </c>
       <c r="C79">
-        <v>2157.462795448097</v>
+        <v>2157.46279544805</v>
       </c>
       <c r="D79">
         <v>19142.69307011111</v>
       </c>
       <c r="E79">
-        <v>5343.05039912871</v>
+        <v>5343.050399128734</v>
       </c>
       <c r="F79">
-        <v>4445.571272178324</v>
+        <v>4445.571272178337</v>
       </c>
       <c r="G79">
-        <v>5.397745294941871</v>
+        <v>5.397745294941884</v>
       </c>
       <c r="H79">
-        <v>41.18321038659428</v>
+        <v>41.1832103865944</v>
       </c>
       <c r="I79">
-        <v>1.554605803098133E-08</v>
+        <v>1.554605803098139E-08</v>
       </c>
       <c r="J79">
-        <v>1.969924911337678E-08</v>
+        <v>1.969924911337677E-08</v>
       </c>
       <c r="K79">
-        <v>4.312913114341949E-05</v>
+        <v>4.312913114341952E-05</v>
       </c>
       <c r="L79">
-        <v>0.09384954783899917</v>
+        <v>0.09384954783899919</v>
       </c>
       <c r="M79">
-        <v>716.2539657397399</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>0.09381667209863742</v>
+      </c>
+      <c r="N79">
+        <v>716.2539657397389</v>
+      </c>
+      <c r="O79">
+        <v>3.2875740361776E-05</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80">
-        <v>170.9654056062763</v>
+        <v>170.9654056062762</v>
       </c>
       <c r="B80">
-        <v>2297307.279681244</v>
+        <v>2297307.279681246</v>
       </c>
       <c r="C80">
-        <v>2286.480486229653</v>
+        <v>2286.480486229661</v>
       </c>
       <c r="D80">
-        <v>18925.39360748152</v>
+        <v>18925.39360748155</v>
       </c>
       <c r="E80">
         <v>5226.297266898187</v>
       </c>
       <c r="F80">
-        <v>4342.949688216449</v>
+        <v>4342.949688216452</v>
       </c>
       <c r="G80">
-        <v>5.331856600809429</v>
+        <v>5.331856600809438</v>
       </c>
       <c r="H80">
-        <v>42.74479546202741</v>
+        <v>42.74479546202716</v>
       </c>
       <c r="I80">
-        <v>1.679326337888613E-08</v>
+        <v>1.679326337888593E-08</v>
       </c>
       <c r="J80">
-        <v>2.036178931270354E-08</v>
+        <v>2.036178931270345E-08</v>
       </c>
       <c r="K80">
-        <v>4.195253013885369E-05</v>
+        <v>4.195253013885391E-05</v>
       </c>
       <c r="L80">
-        <v>0.09195251812823281</v>
+        <v>0.09195251812823309</v>
       </c>
       <c r="M80">
-        <v>701.042971521543</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>0.09191734202074921</v>
+      </c>
+      <c r="N80">
+        <v>701.0429715215453</v>
+      </c>
+      <c r="O80">
+        <v>3.517610748388478E-05</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81">
-        <v>172.4395073506911</v>
+        <v>172.4395073506909</v>
       </c>
       <c r="B81">
-        <v>2416643.158556874</v>
+        <v>2416643.158556876</v>
       </c>
       <c r="C81">
-        <v>2423.320677745945</v>
+        <v>2423.320677745956</v>
       </c>
       <c r="D81">
-        <v>18702.64821861924</v>
+        <v>18702.64821861928</v>
       </c>
       <c r="E81">
-        <v>5104.985767434846</v>
+        <v>5104.985767434847</v>
       </c>
       <c r="F81">
-        <v>4236.955247515561</v>
+        <v>4236.955247515564</v>
       </c>
       <c r="G81">
-        <v>5.267557259287091</v>
+        <v>5.267557259287109</v>
       </c>
       <c r="H81">
-        <v>44.44957344849882</v>
+        <v>44.44957344849858</v>
       </c>
       <c r="I81">
-        <v>1.819676629651398E-08</v>
+        <v>1.819676629651375E-08</v>
       </c>
       <c r="J81">
-        <v>2.105332821507627E-08</v>
+        <v>2.105332821507616E-08</v>
       </c>
       <c r="K81">
-        <v>4.079475374789905E-05</v>
+        <v>4.079475374789923E-05</v>
       </c>
       <c r="L81">
-        <v>0.09005964211585404</v>
+        <v>0.09005964211585435</v>
       </c>
       <c r="M81">
-        <v>685.706609588213</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>0.09002197822997045</v>
+      </c>
+      <c r="N81">
+        <v>685.7066095882155</v>
+      </c>
+      <c r="O81">
+        <v>3.766388588389567E-05</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82">
-        <v>173.9136090951058</v>
+        <v>173.9136090951056</v>
       </c>
       <c r="B82">
-        <v>2540334.667927084</v>
+        <v>2540334.667927048</v>
       </c>
       <c r="C82">
-        <v>2568.646413021444</v>
+        <v>2568.646413021389</v>
       </c>
       <c r="D82">
-        <v>18474.11942027778</v>
+        <v>18474.11942027781</v>
       </c>
       <c r="E82">
-        <v>4978.814949699731</v>
+        <v>4978.814949699766</v>
       </c>
       <c r="F82">
-        <v>4127.344752065447</v>
+        <v>4127.344752065474</v>
       </c>
       <c r="G82">
-        <v>5.205065957392863</v>
+        <v>5.205065957392871</v>
       </c>
       <c r="H82">
-        <v>46.31960175903087</v>
+        <v>46.31960175903053</v>
       </c>
       <c r="I82">
-        <v>1.978421403774149E-08</v>
+        <v>1.978421403774129E-08</v>
       </c>
       <c r="J82">
-        <v>2.177612394523068E-08</v>
+        <v>2.177612394523061E-08</v>
       </c>
       <c r="K82">
-        <v>3.96548570098945E-05</v>
+        <v>3.965485700989461E-05</v>
       </c>
       <c r="L82">
-        <v>0.08817256242641078</v>
+        <v>0.08817256242641097</v>
       </c>
       <c r="M82">
-        <v>670.2405514137313</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>0.08813220983238311</v>
+      </c>
+      <c r="N82">
+        <v>670.2405514137328</v>
+      </c>
+      <c r="O82">
+        <v>4.035259402785788E-05</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83">
-        <v>175.3877108395206</v>
+        <v>175.3877108395204</v>
       </c>
       <c r="B83">
-        <v>2668488.16099642</v>
+        <v>2668488.160996387</v>
       </c>
       <c r="C83">
-        <v>2723.196951156133</v>
+        <v>2723.19695115608</v>
       </c>
       <c r="D83">
-        <v>18239.43134715844</v>
+        <v>18239.43134715845</v>
       </c>
       <c r="E83">
-        <v>4847.458056316038</v>
+        <v>4847.458056316064</v>
       </c>
       <c r="F83">
-        <v>4013.851223644758</v>
+        <v>4013.851223644776</v>
       </c>
       <c r="G83">
         <v>5.144619122810869</v>
       </c>
       <c r="H83">
-        <v>48.38190243751902</v>
+        <v>48.38190243751874</v>
       </c>
       <c r="I83">
-        <v>2.158986362163673E-08</v>
+        <v>2.158986362163656E-08</v>
       </c>
       <c r="J83">
-        <v>2.253270066993067E-08</v>
+        <v>2.253270066993059E-08</v>
       </c>
       <c r="K83">
-        <v>3.853189986934945E-05</v>
+        <v>3.853189986934953E-05</v>
       </c>
       <c r="L83">
-        <v>0.08629296073090881</v>
+        <v>0.08629296073090895</v>
       </c>
       <c r="M83">
-        <v>654.6395384648404</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>0.08624970426384909</v>
+      </c>
+      <c r="N83">
+        <v>654.6395384648415</v>
+      </c>
+      <c r="O83">
+        <v>4.325646705985816E-05</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84">
-        <v>176.8618125839353</v>
+        <v>176.8618125839352</v>
       </c>
       <c r="B84">
-        <v>2801212.787535154</v>
+        <v>2801212.78753508</v>
       </c>
       <c r="C84">
-        <v>2887.795003644504</v>
+        <v>2887.795003644371</v>
       </c>
       <c r="D84">
-        <v>17998.1618059895</v>
+        <v>17998.16180598951</v>
       </c>
       <c r="E84">
-        <v>4710.561234615664</v>
+        <v>4710.561234615731</v>
       </c>
       <c r="F84">
-        <v>3896.182181309067</v>
+        <v>3896.182181309112</v>
       </c>
       <c r="G84">
-        <v>5.086473112284381</v>
+        <v>5.08647311228437</v>
       </c>
       <c r="H84">
-        <v>50.66992846445976</v>
+        <v>50.66992846445982</v>
       </c>
       <c r="I84">
-        <v>2.365663621996896E-08</v>
+        <v>2.3656636219969E-08</v>
       </c>
       <c r="J84">
-        <v>2.332590167542763E-08</v>
+        <v>2.332590167542761E-08</v>
       </c>
       <c r="K84">
         <v>3.74249323784098E-05</v>
       </c>
       <c r="L84">
-        <v>0.08442249325438116</v>
+        <v>0.0844224932543812</v>
       </c>
       <c r="M84">
-        <v>638.8972028118192</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>0.08437610276957783</v>
+      </c>
+      <c r="N84">
+        <v>638.8972028118189</v>
+      </c>
+      <c r="O84">
+        <v>4.639048480337701E-05</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85">
-        <v>178.3359143283501</v>
+        <v>178.3359143283499</v>
       </c>
       <c r="B85">
-        <v>2938620.005211813</v>
+        <v>2938620.005211716</v>
       </c>
       <c r="C85">
-        <v>3063.353560292976</v>
+        <v>3063.353560292794</v>
       </c>
       <c r="D85">
-        <v>17749.83201446175</v>
+        <v>17749.83201446176</v>
       </c>
       <c r="E85">
-        <v>4567.74243364765</v>
+        <v>4567.742433647738</v>
       </c>
       <c r="F85">
-        <v>3774.018032567682</v>
+        <v>3774.018032567742</v>
       </c>
       <c r="G85">
-        <v>5.03090695901639</v>
+        <v>5.030906959016399</v>
       </c>
       <c r="H85">
-        <v>53.22557828031012</v>
+        <v>53.22557828031031</v>
       </c>
       <c r="I85">
-        <v>2.60389757392548E-08</v>
+        <v>2.603897573925489E-08</v>
       </c>
       <c r="J85">
-        <v>2.415895749733581E-08</v>
+        <v>2.415895749733577E-08</v>
       </c>
       <c r="K85">
-        <v>3.633297477437261E-05</v>
+        <v>3.633297477437262E-05</v>
       </c>
       <c r="L85">
-        <v>0.08256271797407302</v>
+        <v>0.08256271797407305</v>
       </c>
       <c r="M85">
-        <v>623.0058511382283</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>0.0825129475696157</v>
+      </c>
+      <c r="N85">
+        <v>623.0058511382279</v>
+      </c>
+      <c r="O85">
+        <v>4.977040445735194E-05</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86">
-        <v>179.8100160727648</v>
+        <v>179.8100160727647</v>
       </c>
       <c r="B86">
-        <v>3080822.73760345</v>
+        <v>3080822.737603436</v>
       </c>
       <c r="C86">
-        <v>3250.88193832676</v>
+        <v>3250.881938326744</v>
       </c>
       <c r="D86">
-        <v>17493.89316040502</v>
+        <v>17493.89316040504</v>
       </c>
       <c r="E86">
-        <v>4418.590362823403</v>
+        <v>4418.59036282342</v>
       </c>
       <c r="F86">
-        <v>3647.010543923083</v>
+        <v>3647.010543923096</v>
       </c>
       <c r="G86">
-        <v>4.978225882135901</v>
+        <v>4.978225882135942</v>
       </c>
       <c r="H86">
-        <v>56.10201314147691</v>
+        <v>56.10201314147706</v>
       </c>
       <c r="I86">
-        <v>2.880689990829673E-08</v>
+        <v>2.880689990829667E-08</v>
       </c>
       <c r="J86">
-        <v>2.503557457067024E-08</v>
+        <v>2.503557457067017E-08</v>
       </c>
       <c r="K86">
-        <v>3.525499087909747E-05</v>
+        <v>3.525499087909754E-05</v>
       </c>
       <c r="L86">
-        <v>0.08071501180484496</v>
+        <v>0.08071501180484507</v>
       </c>
       <c r="M86">
-        <v>606.9561979845895</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>0.08066159900425703</v>
+      </c>
+      <c r="N86">
+        <v>606.9561979845899</v>
+      </c>
+      <c r="O86">
+        <v>5.341280058804265E-05</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87">
-        <v>181.2841178171796</v>
+        <v>181.2841178171794</v>
       </c>
       <c r="B87">
-        <v>3227934.068324083</v>
+        <v>3227934.068324022</v>
       </c>
       <c r="C87">
-        <v>3451.490848908959</v>
+        <v>3451.490848908836</v>
       </c>
       <c r="D87">
-        <v>17229.70851954987</v>
+        <v>17229.70851954989</v>
       </c>
       <c r="E87">
-        <v>4262.663109117682</v>
+        <v>4262.663109117752</v>
       </c>
       <c r="F87">
-        <v>3514.781178659883</v>
+        <v>3514.781178659937</v>
       </c>
       <c r="G87">
-        <v>4.928765859715135</v>
+        <v>4.928765859715125</v>
       </c>
       <c r="H87">
-        <v>59.36767726496512</v>
+        <v>59.36767726496482</v>
       </c>
       <c r="I87">
-        <v>3.205186060355698E-08</v>
+        <v>3.205186060355672E-08</v>
       </c>
       <c r="J87">
-        <v>2.596005236942505E-08</v>
+        <v>2.596005236942498E-08</v>
       </c>
       <c r="K87">
-        <v>3.418985265755316E-05</v>
+        <v>3.418985265755323E-05</v>
       </c>
       <c r="L87">
-        <v>0.07888047493465296</v>
+        <v>0.07888047493465306</v>
       </c>
       <c r="M87">
-        <v>590.7370265056272</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+        <v>0.07882313981833114</v>
+      </c>
+      <c r="N87">
+        <v>590.7370265056285</v>
+      </c>
+      <c r="O87">
+        <v>5.733511632192166E-05</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88">
-        <v>182.7582195615943</v>
+        <v>182.7582195615942</v>
       </c>
       <c r="B88">
-        <v>3380065.351758299</v>
+        <v>3380065.351758319</v>
       </c>
       <c r="C88">
-        <v>3666.396814942916</v>
+        <v>3666.396814942985</v>
       </c>
       <c r="D88">
-        <v>16956.52925490019</v>
+        <v>16956.52925490025</v>
       </c>
       <c r="E88">
-        <v>4099.485473407872</v>
+        <v>4099.48547340784</v>
       </c>
       <c r="F88">
-        <v>3376.918719074013</v>
+        <v>3376.918719073994</v>
       </c>
       <c r="G88">
-        <v>4.882899720573628</v>
+        <v>4.882899720573605</v>
       </c>
       <c r="H88">
-        <v>63.11216682532647</v>
+        <v>63.11216682532493</v>
       </c>
       <c r="I88">
-        <v>3.589542086602105E-08</v>
+        <v>3.589542086601983E-08</v>
       </c>
       <c r="J88">
-        <v>2.693744090683711E-08</v>
+        <v>2.693744090683689E-08</v>
       </c>
       <c r="K88">
-        <v>3.313629282585973E-05</v>
+        <v>3.313629282585994E-05</v>
       </c>
       <c r="L88">
-        <v>0.07705981767497677</v>
+        <v>0.07705981767497716</v>
       </c>
       <c r="M88">
-        <v>574.3347433606576</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>0.07699826194333972</v>
+      </c>
+      <c r="N88">
+        <v>574.3347433606621</v>
+      </c>
+      <c r="O88">
+        <v>6.15557316374315E-05</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89">
-        <v>184.2323213060091</v>
+        <v>184.2323213060089</v>
       </c>
       <c r="B89">
-        <v>3537323.628870858</v>
+        <v>3537323.628870862</v>
       </c>
       <c r="C89">
-        <v>3896.927533859983</v>
+        <v>3896.92753386001</v>
       </c>
       <c r="D89">
-        <v>16673.46104481328</v>
+        <v>16673.46104481332</v>
       </c>
       <c r="E89">
-        <v>3928.543133264619</v>
+        <v>3928.543133264621</v>
       </c>
       <c r="F89">
-        <v>3232.974891999314</v>
+        <v>3232.974891999323</v>
       </c>
       <c r="G89">
-        <v>4.841045454498104</v>
+        <v>4.841045454498092</v>
       </c>
       <c r="H89">
-        <v>67.45502481947872</v>
+        <v>67.45502481947763</v>
       </c>
       <c r="I89">
-        <v>4.050244750394736E-08</v>
+        <v>4.050244750394644E-08</v>
       </c>
       <c r="J89">
-        <v>2.797375670902488E-08</v>
+        <v>2.797375670902476E-08</v>
       </c>
       <c r="K89">
-        <v>3.209284089946144E-05</v>
+        <v>3.209284089946157E-05</v>
       </c>
       <c r="L89">
-        <v>0.07525322235579378</v>
+        <v>0.07525322235579403</v>
       </c>
       <c r="M89">
-        <v>557.732776279319</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+        <v>0.07518712829803575</v>
+      </c>
+      <c r="N89">
+        <v>557.7327762793218</v>
+      </c>
+      <c r="O89">
+        <v>6.609405775826752E-05</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90">
-        <v>185.7064230504238</v>
+        <v>185.7064230504237</v>
       </c>
       <c r="B90">
-        <v>3699808.27518531</v>
+        <v>3699808.275185271</v>
       </c>
       <c r="C90">
-        <v>4144.532281800422</v>
+        <v>4144.532281800341</v>
       </c>
       <c r="D90">
-        <v>16379.41709735558</v>
+        <v>16379.4170973556</v>
       </c>
       <c r="E90">
-        <v>3749.270151266317</v>
+        <v>3749.270151266347</v>
       </c>
       <c r="F90">
-        <v>3082.455496996656</v>
+        <v>3082.455496996678</v>
       </c>
       <c r="G90">
-        <v>4.803677836436104</v>
+        <v>4.803677836436105</v>
       </c>
       <c r="H90">
-        <v>72.55932270576493</v>
+        <v>72.55932270576429</v>
       </c>
       <c r="I90">
-        <v>4.610178993693029E-08</v>
+        <v>4.610178993692972E-08</v>
       </c>
       <c r="J90">
-        <v>2.907628564719121E-08</v>
+        <v>2.90762856471911E-08</v>
       </c>
       <c r="K90">
-        <v>3.105773563901316E-05</v>
+        <v>3.105773563901322E-05</v>
       </c>
       <c r="L90">
-        <v>0.07346016827840708</v>
+        <v>0.07346016827840721</v>
       </c>
       <c r="M90">
-        <v>540.9107345559856</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>0.07338919760680916</v>
+      </c>
+      <c r="N90">
+        <v>540.9107345559871</v>
+      </c>
+      <c r="O90">
+        <v>7.097067159804082E-05</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91">
-        <v>187.1805247948386</v>
+        <v>187.1805247948384</v>
       </c>
       <c r="B91">
-        <v>3867606.890775839</v>
+        <v>3867606.890775795</v>
       </c>
       <c r="C91">
-        <v>4410.80593036896</v>
+        <v>4410.805930368849</v>
       </c>
       <c r="D91">
-        <v>16073.05042648128</v>
+        <v>16073.05042648131</v>
       </c>
       <c r="E91">
-        <v>3561.023840340678</v>
+        <v>3561.023840340727</v>
       </c>
       <c r="F91">
-        <v>2924.802532118774</v>
+        <v>2924.802532118811</v>
       </c>
       <c r="G91">
-        <v>4.771345119024387</v>
+        <v>4.77134511902442</v>
       </c>
       <c r="H91">
-        <v>78.65337955624842</v>
+        <v>78.65337955624736</v>
       </c>
       <c r="I91">
-        <v>5.301986133238192E-08</v>
+        <v>5.301986133238092E-08</v>
       </c>
       <c r="J91">
-        <v>3.025401851632825E-08</v>
+        <v>3.025401851632812E-08</v>
       </c>
       <c r="K91">
-        <v>3.002880274649849E-05</v>
+        <v>3.002880274649857E-05</v>
       </c>
       <c r="L91">
-        <v>0.07167920031531501</v>
+        <v>0.07167920031531518</v>
       </c>
       <c r="M91">
-        <v>523.8432068405948</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>0.07160299280297283</v>
+      </c>
+      <c r="N91">
+        <v>523.8432068405966</v>
+      </c>
+      <c r="O91">
+        <v>7.620751234234385E-05</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92">
-        <v>188.6546265392533</v>
+        <v>188.6546265392531</v>
       </c>
       <c r="B92">
-        <v>4040790.580522126</v>
+        <v>4040790.580521981</v>
       </c>
       <c r="C92">
-        <v>4697.542592847716</v>
+        <v>4697.542592847285</v>
       </c>
       <c r="D92">
-        <v>15752.65354951927</v>
+        <v>15752.65354951919</v>
       </c>
       <c r="E92">
-        <v>3363.037160948062</v>
+        <v>3363.037160948223</v>
       </c>
       <c r="F92">
-        <v>2759.359645039343</v>
+        <v>2759.359645039449</v>
       </c>
       <c r="G92">
-        <v>4.744693681652365</v>
+        <v>4.744693681652397</v>
       </c>
       <c r="H92">
-        <v>86.06694921562961</v>
+        <v>86.06694921563374</v>
       </c>
       <c r="I92">
-        <v>6.173748946599865E-08</v>
+        <v>6.173748946600274E-08</v>
       </c>
       <c r="J92">
-        <v>3.151829630428529E-08</v>
+        <v>3.151829630428555E-08</v>
       </c>
       <c r="K92">
-        <v>2.900327943375432E-05</v>
+        <v>2.900327943375403E-05</v>
       </c>
       <c r="L92">
-        <v>0.06990760904543328</v>
+        <v>0.06990760904543289</v>
       </c>
       <c r="M92">
-        <v>506.4979929094056</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>0.0698257808692625</v>
+      </c>
+      <c r="N92">
+        <v>506.4979929093986</v>
+      </c>
+      <c r="O92">
+        <v>8.182817617039207E-05</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93">
-        <v>190.1287282836681</v>
+        <v>190.1287282836679</v>
       </c>
       <c r="B93">
-        <v>4219408.959419677</v>
+        <v>4219408.95941964</v>
       </c>
       <c r="C93">
-        <v>5006.846875270219</v>
+        <v>5006.846875270121</v>
       </c>
       <c r="D93">
-        <v>15416.00501996055</v>
+        <v>15416.00501996057</v>
       </c>
       <c r="E93">
-        <v>3154.332871711159</v>
+        <v>3154.332871711203</v>
       </c>
       <c r="F93">
-        <v>2585.308228879364</v>
+        <v>2585.308228879396</v>
       </c>
       <c r="G93">
-        <v>4.724505571256963</v>
+        <v>4.72450557125695</v>
       </c>
       <c r="H93">
-        <v>95.29453735137206</v>
+        <v>95.29453735137172</v>
       </c>
       <c r="I93">
-        <v>7.299106191880007E-08</v>
+        <v>7.299106191879959E-08</v>
       </c>
       <c r="J93">
-        <v>3.288380004311966E-08</v>
+        <v>3.288380004311954E-08</v>
       </c>
       <c r="K93">
-        <v>2.797755398945317E-05</v>
+        <v>2.797755398945322E-05</v>
       </c>
       <c r="L93">
-        <v>0.06814096732135969</v>
+        <v>0.06814096732135981</v>
       </c>
       <c r="M93">
-        <v>488.8334247383936</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>0.06805310895112308</v>
+      </c>
+      <c r="N93">
+        <v>488.8334247383943</v>
+      </c>
+      <c r="O93">
+        <v>8.785837023672199E-05</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94">
-        <v>191.6028300280828</v>
+        <v>191.6028300280826</v>
       </c>
       <c r="B94">
-        <v>4403485.419185822</v>
+        <v>4403485.419185716</v>
       </c>
       <c r="C94">
-        <v>5341.350509923859</v>
+        <v>5341.350509923488</v>
       </c>
       <c r="D94">
-        <v>15060.12493705862</v>
+        <v>15060.12493705853</v>
       </c>
       <c r="E94">
-        <v>2933.573539361109</v>
+        <v>2933.573539361245</v>
       </c>
       <c r="F94">
-        <v>2401.552984227897</v>
+        <v>2401.552984227985</v>
       </c>
       <c r="G94">
-        <v>4.711757799660507</v>
+        <v>4.711757799660541</v>
       </c>
       <c r="H94">
-        <v>107.112979597249</v>
+        <v>107.1129795972569</v>
       </c>
       <c r="I94">
-        <v>8.796367802360843E-08</v>
+        <v>8.796367802361659E-08</v>
       </c>
       <c r="J94">
-        <v>3.437013503479569E-08</v>
+        <v>3.437013503479599E-08</v>
       </c>
       <c r="K94">
-        <v>2.694676160813761E-05</v>
+        <v>2.694676160813734E-05</v>
       </c>
       <c r="L94">
-        <v>0.06637242380378033</v>
+        <v>0.06637242380377996</v>
       </c>
       <c r="M94">
-        <v>470.7941537367562</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>0.06627809716828761</v>
+      </c>
+      <c r="N94">
+        <v>470.7941537367487</v>
+      </c>
+      <c r="O94">
+        <v>9.432663549235057E-05</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95">
-        <v>193.0769317724976</v>
+        <v>193.0769317724974</v>
       </c>
       <c r="B95">
-        <v>4593013.341436906</v>
+        <v>4593013.341436871</v>
       </c>
       <c r="C95">
-        <v>5704.619081189352</v>
+        <v>5704.619081189274</v>
       </c>
       <c r="D95">
-        <v>14680.8647687967</v>
+        <v>14680.86476879675</v>
       </c>
       <c r="E95">
-        <v>2698.801341168488</v>
+        <v>2698.801341168537</v>
       </c>
       <c r="F95">
-        <v>2206.519122177249</v>
+        <v>2206.519122177289</v>
       </c>
       <c r="G95">
-        <v>4.707720411172978</v>
+        <v>4.707720411172974</v>
       </c>
       <c r="H95">
-        <v>122.8165794491334</v>
+        <v>122.8165794491316</v>
       </c>
       <c r="I95">
-        <v>1.086746215227905E-07</v>
+        <v>1.086746215227879E-07</v>
       </c>
       <c r="J95">
-        <v>3.600450467129415E-08</v>
+        <v>3.600450467129394E-08</v>
       </c>
       <c r="K95">
-        <v>2.590412010680367E-05</v>
+        <v>2.590412010680379E-05</v>
       </c>
       <c r="L95">
-        <v>0.06459156169017791</v>
+        <v>0.0645915616901781</v>
       </c>
       <c r="M95">
-        <v>452.3041820911259</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+        <v>0.06449029614088542</v>
+      </c>
+      <c r="N95">
+        <v>452.3041820911281</v>
+      </c>
+      <c r="O95">
+        <v>0.0001012655492926804</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96">
-        <v>194.5510335169123</v>
+        <v>194.5510335169122</v>
       </c>
       <c r="B96">
-        <v>4787953.956543038</v>
+        <v>4787953.956542918</v>
       </c>
       <c r="C96">
-        <v>6101.915922673872</v>
+        <v>6101.915922673347</v>
       </c>
       <c r="D96">
-        <v>14272.1707864293</v>
+        <v>14272.17078642918</v>
       </c>
       <c r="E96">
-        <v>2446.973987653839</v>
+        <v>2446.973987654008</v>
       </c>
       <c r="F96">
-        <v>1997.784776883335</v>
+        <v>1997.784776883453</v>
       </c>
       <c r="G96">
-        <v>4.7141289111449</v>
+        <v>4.714128911144953</v>
       </c>
       <c r="H96">
-        <v>144.7343597560495</v>
+        <v>144.734359756063</v>
       </c>
       <c r="I96">
-        <v>1.388534397801007E-07</v>
+        <v>1.388534397801174E-07</v>
       </c>
       <c r="J96">
-        <v>3.782654408170198E-08</v>
+        <v>3.782654408170247E-08</v>
       </c>
       <c r="K96">
-        <v>2.48397538165375E-05</v>
+        <v>2.483975381653717E-05</v>
       </c>
       <c r="L96">
-        <v>0.06278242029332436</v>
+        <v>0.0627824202933239</v>
       </c>
       <c r="M96">
-        <v>433.2544989415063</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>0.06267370644095399</v>
+      </c>
+      <c r="N96">
+        <v>433.2544989414981</v>
+      </c>
+      <c r="O96">
+        <v>0.0001087138523699095</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97">
-        <v>196.0251352613271</v>
+        <v>196.0251352613269</v>
       </c>
       <c r="B97">
-        <v>4988236.368602074</v>
+        <v>4988236.368601994</v>
       </c>
       <c r="C97">
-        <v>6541.709450179192</v>
+        <v>6541.709450178802</v>
       </c>
       <c r="D97">
-        <v>13824.63397402024</v>
+        <v>13824.63397402014</v>
       </c>
       <c r="E97">
-        <v>2173.073659677464</v>
+        <v>2173.073659677579</v>
       </c>
       <c r="F97">
-        <v>1771.368008892655</v>
+        <v>1771.368008892733</v>
       </c>
       <c r="G97">
-        <v>4.73351436358853</v>
+        <v>4.733514363588565</v>
       </c>
       <c r="H97">
-        <v>177.5230177161436</v>
+        <v>177.5230177161598</v>
       </c>
       <c r="I97">
-        <v>1.86172987826051E-07</v>
+        <v>1.861729878260718E-07</v>
       </c>
       <c r="J97">
-        <v>3.989790152346773E-08</v>
+        <v>3.989790152346809E-08</v>
       </c>
       <c r="K97">
-        <v>2.373839700528938E-05</v>
+        <v>2.373839700528915E-05</v>
       </c>
       <c r="L97">
-        <v>0.06091973547695694</v>
+        <v>0.06091973547695665</v>
       </c>
       <c r="M97">
-        <v>413.4789153550071</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>0.06080301492456597</v>
+      </c>
+      <c r="N97">
+        <v>413.478915355001</v>
+      </c>
+      <c r="O97">
+        <v>0.0001167205523906726</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98">
-        <v>197.4992370057418</v>
+        <v>197.4992370057416</v>
       </c>
       <c r="B98">
-        <v>5193759.911349076</v>
+        <v>5193759.91134893</v>
       </c>
       <c r="C98">
-        <v>7039.002379431516</v>
+        <v>7039.002379430627</v>
       </c>
       <c r="D98">
-        <v>13322.23874631691</v>
+        <v>13322.23874631651</v>
       </c>
       <c r="E98">
-        <v>1868.156845725289</v>
+        <v>1868.156845725487</v>
       </c>
       <c r="F98">
-        <v>1520.158689343449</v>
+        <v>1520.15868934357</v>
       </c>
       <c r="G98">
-        <v>4.769918388763497</v>
+        <v>4.769918388763659</v>
       </c>
       <c r="H98">
-        <v>232.0450811608691</v>
+        <v>232.0450811609646</v>
       </c>
       <c r="I98">
-        <v>2.691119592105134E-07</v>
+        <v>2.691119592106475E-07</v>
       </c>
       <c r="J98">
-        <v>4.232386837936116E-08</v>
+        <v>4.232386837936287E-08</v>
       </c>
       <c r="K98">
-        <v>2.257426290091847E-05</v>
+        <v>2.257426290091754E-05</v>
       </c>
       <c r="L98">
-        <v>0.0589608085149172</v>
+        <v>0.05896080851491593</v>
       </c>
       <c r="M98">
-        <v>392.6999574448492</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>0.05883545459963324</v>
+      </c>
+      <c r="N98">
+        <v>392.6999574448268</v>
+      </c>
+      <c r="O98">
+        <v>0.0001253539152826948</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99">
-        <v>198.9733387501566</v>
+        <v>198.9733387501564</v>
       </c>
       <c r="B99">
-        <v>5404398.569059023</v>
+        <v>5404398.569059007</v>
       </c>
       <c r="C99">
-        <v>7624.31366289319</v>
+        <v>7624.313662893209</v>
       </c>
       <c r="D99">
-        <v>12733.46469533176</v>
+        <v>12733.4646953326</v>
       </c>
       <c r="E99">
-        <v>1514.091628063675</v>
+        <v>1514.091628063888</v>
       </c>
       <c r="F99">
-        <v>1229.679070223949</v>
+        <v>1229.679070224148</v>
       </c>
       <c r="G99">
-        <v>4.830771159255224</v>
+        <v>4.830771159254994</v>
       </c>
       <c r="H99">
-        <v>340.876879619894</v>
+        <v>340.8768796195693</v>
       </c>
       <c r="I99">
-        <v>4.451836547607663E-07</v>
+        <v>4.451836547602623E-07</v>
       </c>
       <c r="J99">
-        <v>4.531299810566982E-08</v>
+        <v>4.531299810566581E-08</v>
       </c>
       <c r="K99">
-        <v>2.129700916380327E-05</v>
+        <v>2.129700916380508E-05</v>
       </c>
       <c r="L99">
-        <v>0.05682398826168469</v>
+        <v>0.05682398826168727</v>
       </c>
       <c r="M99">
-        <v>370.3802043903359</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>0.05668926277050595</v>
+      </c>
+      <c r="N99">
+        <v>370.3802043903742</v>
+      </c>
+      <c r="O99">
+        <v>0.0001347254911813192</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100">
-        <v>200.4474404945714</v>
+        <v>200.4474404945712</v>
       </c>
       <c r="B100">
-        <v>5620006.840277672</v>
+        <v>5620006.840278035</v>
       </c>
       <c r="C100">
-        <v>8378.721421695353</v>
+        <v>8378.721421702254</v>
       </c>
       <c r="D100">
-        <v>11976.31772062821</v>
+        <v>11976.31772063253</v>
       </c>
       <c r="E100">
-        <v>1062.97388215086</v>
+        <v>1062.97388214984</v>
       </c>
       <c r="F100">
-        <v>861.4863340782723</v>
+        <v>861.4863340776211</v>
       </c>
       <c r="G100">
-        <v>4.933912115095173</v>
+        <v>4.933912115093888</v>
       </c>
       <c r="H100">
-        <v>666.7793221326426</v>
+        <v>666.7793221278877</v>
       </c>
       <c r="I100">
-        <v>1.015781021892672E-06</v>
+        <v>1.015781021884496E-06</v>
       </c>
       <c r="J100">
-        <v>4.941329918496139E-08</v>
+        <v>4.941329918493853E-08</v>
       </c>
       <c r="K100">
-        <v>1.977652318827033E-05</v>
+        <v>1.977652318827891E-05</v>
       </c>
       <c r="L100">
-        <v>0.05430603925833571</v>
+        <v>0.05430603925834765</v>
       </c>
       <c r="M100">
-        <v>345.1333149549753</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>0.05416095698119829</v>
+      </c>
+      <c r="N100">
+        <v>345.1333149551378</v>
+      </c>
+      <c r="O100">
+        <v>0.0001450822771493621</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101">
-        <v>201.9215422389861</v>
+        <v>201.9215422389859</v>
       </c>
       <c r="B101">
-        <v>5840425.048474184</v>
+        <v>5840425.048158772</v>
       </c>
       <c r="C101">
-        <v>10212.21287851222</v>
+        <v>10212.27533278849</v>
       </c>
       <c r="D101">
-        <v>10216.47830900148</v>
+        <v>10216.41809368556</v>
       </c>
       <c r="E101">
-        <v>1.254873898075331</v>
+        <v>1.218784897109637</v>
       </c>
       <c r="F101">
-        <v>1.016100331230201</v>
+        <v>0.98687827497611</v>
       </c>
       <c r="G101">
-        <v>5.23536519952406</v>
+        <v>5.235375916758112</v>
       </c>
       <c r="H101">
-        <v>8410412.951157181</v>
+        <v>8663787.512094231</v>
       </c>
       <c r="I101">
-        <v>0.01840356658788036</v>
+        <v>0.01895823435321279</v>
       </c>
       <c r="J101">
-        <v>6.032746352674706E-08</v>
+        <v>6.032787706225386E-08</v>
       </c>
       <c r="K101">
-        <v>1.669040017644307E-05</v>
+        <v>1.669030407635159E-05</v>
       </c>
       <c r="L101">
-        <v>0.0493957817104775</v>
+        <v>0.0493956341590908</v>
       </c>
       <c r="M101">
-        <v>302.6710282110383</v>
+        <v>0.04923704186065053</v>
+      </c>
+      <c r="N101">
+        <v>302.6699610862373</v>
+      </c>
+      <c r="O101">
+        <v>0.0001585922984402713</v>
       </c>
     </row>
   </sheetData>
